--- a/raw_data/20200818_saline/20200818_Sensor2_Test_36.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_36.xlsx
@@ -1,703 +1,1119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B57EA3-E675-48C9-864C-B3B9FAE2DDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>31868.585723</v>
       </c>
       <c r="B2" s="1">
-        <v>8.852385</v>
+        <v>8.8523849999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1248.200000</v>
+        <v>1248.2</v>
       </c>
       <c r="D2" s="1">
-        <v>-311.133000</v>
+        <v>-311.13299999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>31879.227389</v>
       </c>
       <c r="G2" s="1">
-        <v>8.855341</v>
+        <v>8.8553409999999992</v>
       </c>
       <c r="H2" s="1">
-        <v>1273.650000</v>
+        <v>1273.6500000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-268.088000</v>
+        <v>-268.08800000000002</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>31889.668176</v>
+        <v>31889.668175999999</v>
       </c>
       <c r="L2" s="1">
-        <v>8.858241</v>
+        <v>8.8582409999999996</v>
       </c>
       <c r="M2" s="1">
-        <v>1309.830000</v>
+        <v>1309.83</v>
       </c>
       <c r="N2" s="1">
-        <v>-204.990000</v>
+        <v>-204.99</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>31900.131778</v>
+        <v>31900.131777999999</v>
       </c>
       <c r="Q2" s="1">
         <v>8.861148</v>
       </c>
       <c r="R2" s="1">
-        <v>1321.980000</v>
+        <v>1321.98</v>
       </c>
       <c r="S2" s="1">
-        <v>-186.389000</v>
+        <v>-186.38900000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>31910.679733</v>
+        <v>31910.679733000001</v>
       </c>
       <c r="V2" s="1">
-        <v>8.864078</v>
+        <v>8.8640779999999992</v>
       </c>
       <c r="W2" s="1">
-        <v>1335.190000</v>
+        <v>1335.19</v>
       </c>
       <c r="X2" s="1">
-        <v>-172.512000</v>
+        <v>-172.512</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>31921.211257</v>
+        <v>31921.211256999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>8.867003</v>
+        <v>8.8670030000000004</v>
       </c>
       <c r="AB2" s="1">
-        <v>1352.830000</v>
+        <v>1352.83</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.445000</v>
+        <v>-169.44499999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>31931.710111</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.869919</v>
+        <v>8.8699189999999994</v>
       </c>
       <c r="AG2" s="1">
-        <v>1365.380000</v>
+        <v>1365.38</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.308000</v>
+        <v>-179.30799999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>31941.891948</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.872748</v>
+        <v>8.8727479999999996</v>
       </c>
       <c r="AL2" s="1">
-        <v>1385.960000</v>
+        <v>1385.96</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.011000</v>
+        <v>-209.011</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>31952.153709</v>
+        <v>31952.153708999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>8.875598</v>
+        <v>8.8755980000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1407.510000</v>
+        <v>1407.51</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.788000</v>
+        <v>-252.78800000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>31962.746768</v>
+        <v>31962.746768000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>8.878541</v>
+        <v>8.8785410000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1431.920000</v>
+        <v>1431.92</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.832000</v>
+        <v>-312.83199999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>31973.163219</v>
+        <v>31973.163218999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.881434</v>
+        <v>8.8814340000000005</v>
       </c>
       <c r="BA2" s="1">
-        <v>1451.160000</v>
+        <v>1451.16</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.032000</v>
+        <v>-365.03199999999998</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>31983.764212</v>
+        <v>31983.764211999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>8.884379</v>
+        <v>8.8843789999999991</v>
       </c>
       <c r="BF2" s="1">
-        <v>1535.930000</v>
+        <v>1535.93</v>
       </c>
       <c r="BG2" s="1">
-        <v>-614.275000</v>
+        <v>-614.27499999999998</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>31994.700501</v>
+        <v>31994.700500999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>8.887417</v>
+        <v>8.8874169999999992</v>
       </c>
       <c r="BK2" s="1">
-        <v>1689.750000</v>
+        <v>1689.75</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1061.800000</v>
+        <v>-1061.8</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>32006.617877</v>
+        <v>32006.617877000001</v>
       </c>
       <c r="BO2" s="1">
         <v>8.890727</v>
       </c>
       <c r="BP2" s="1">
-        <v>1983.690000</v>
+        <v>1983.69</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1837.740000</v>
+        <v>-1837.74</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>32017.808120</v>
+        <v>32017.808120000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.893836</v>
+        <v>8.8938360000000003</v>
       </c>
       <c r="BU2" s="1">
-        <v>2369.620000</v>
+        <v>2369.62</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2738.060000</v>
+        <v>-2738.06</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>32028.484537</v>
@@ -706,574 +1122,574 @@
         <v>8.896801</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2851.720000</v>
+        <v>2851.72</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3716.910000</v>
+        <v>-3716.91</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>32039.384090</v>
+        <v>32039.38409</v>
       </c>
       <c r="CD2" s="1">
-        <v>8.899829</v>
+        <v>8.8998290000000004</v>
       </c>
       <c r="CE2" s="1">
-        <v>4256.600000</v>
+        <v>4256.6000000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6096.180000</v>
+        <v>-6096.18</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>31869.264748</v>
+        <v>31869.264748000001</v>
       </c>
       <c r="B3" s="1">
-        <v>8.852574</v>
+        <v>8.8525740000000006</v>
       </c>
       <c r="C3" s="1">
-        <v>1248.520000</v>
+        <v>1248.52</v>
       </c>
       <c r="D3" s="1">
-        <v>-311.023000</v>
+        <v>-311.02300000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>31879.571119</v>
       </c>
       <c r="G3" s="1">
-        <v>8.855436</v>
+        <v>8.8554359999999992</v>
       </c>
       <c r="H3" s="1">
-        <v>1273.400000</v>
+        <v>1273.4000000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-268.143000</v>
+        <v>-268.14299999999997</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>31890.018847</v>
+        <v>31890.018846999999</v>
       </c>
       <c r="L3" s="1">
-        <v>8.858339</v>
+        <v>8.8583390000000009</v>
       </c>
       <c r="M3" s="1">
-        <v>1310.310000</v>
+        <v>1310.31</v>
       </c>
       <c r="N3" s="1">
-        <v>-205.038000</v>
+        <v>-205.03800000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>31900.497858</v>
+        <v>31900.497857999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.861249</v>
+        <v>8.8612490000000008</v>
       </c>
       <c r="R3" s="1">
-        <v>1322.040000</v>
+        <v>1322.04</v>
       </c>
       <c r="S3" s="1">
-        <v>-186.371000</v>
+        <v>-186.37100000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>31911.359715</v>
+        <v>31911.359714999999</v>
       </c>
       <c r="V3" s="1">
-        <v>8.864267</v>
+        <v>8.8642669999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1335.280000</v>
+        <v>1335.28</v>
       </c>
       <c r="X3" s="1">
-        <v>-172.486000</v>
+        <v>-172.48599999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>31921.674518</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.867132</v>
+        <v>8.8671319999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>1352.500000</v>
+        <v>1352.5</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.710000</v>
+        <v>-169.71</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>31932.107368</v>
+        <v>31932.107368000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.870030</v>
+        <v>8.8700299999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1365.390000</v>
+        <v>1365.39</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.270000</v>
+        <v>-179.27</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>31942.241626</v>
+        <v>31942.241625999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>8.872845</v>
+        <v>8.8728449999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1385.920000</v>
+        <v>1385.92</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.971000</v>
+        <v>-208.971</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>31952.515794</v>
+        <v>31952.515793999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>8.875699</v>
+        <v>8.8756989999999991</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1407.500000</v>
+        <v>1407.5</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.801000</v>
+        <v>-252.80099999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>31963.127663</v>
+        <v>31963.127662999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>8.878647</v>
+        <v>8.8786470000000008</v>
       </c>
       <c r="AV3" s="1">
-        <v>1431.920000</v>
+        <v>1431.92</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.827000</v>
+        <v>-312.827</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>31973.579857</v>
+        <v>31973.579857000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>8.881550</v>
+        <v>8.8815500000000007</v>
       </c>
       <c r="BA3" s="1">
-        <v>1451.130000</v>
+        <v>1451.13</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.043000</v>
+        <v>-365.04300000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>31984.209619</v>
+        <v>31984.209619000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>8.884503</v>
+        <v>8.8845030000000005</v>
       </c>
       <c r="BF3" s="1">
-        <v>1535.880000</v>
+        <v>1535.88</v>
       </c>
       <c r="BG3" s="1">
-        <v>-614.259000</v>
+        <v>-614.25900000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>31995.164767</v>
+        <v>31995.164766999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>8.887546</v>
+        <v>8.8875460000000004</v>
       </c>
       <c r="BK3" s="1">
-        <v>1689.750000</v>
+        <v>1689.75</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1061.770000</v>
+        <v>-1061.77</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>32007.049397</v>
+        <v>32007.049396999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>8.890847</v>
+        <v>8.8908470000000008</v>
       </c>
       <c r="BP3" s="1">
-        <v>1983.460000</v>
+        <v>1983.46</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1837.940000</v>
+        <v>-1837.94</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>32018.312086</v>
+        <v>32018.312086000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>8.893976</v>
+        <v>8.8939760000000003</v>
       </c>
       <c r="BU3" s="1">
-        <v>2369.920000</v>
+        <v>2369.92</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2738.350000</v>
+        <v>-2738.35</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>32028.950745</v>
+        <v>32028.950744999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>8.896931</v>
+        <v>8.8969310000000004</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2851.330000</v>
+        <v>2851.33</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3717.040000</v>
+        <v>-3717.04</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>32039.978795</v>
+        <v>32039.978794999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>8.899994</v>
+        <v>8.8999939999999995</v>
       </c>
       <c r="CE3" s="1">
-        <v>4282.010000</v>
+        <v>4282.01</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6091.670000</v>
+        <v>-6091.67</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>31869.609772</v>
       </c>
       <c r="B4" s="1">
-        <v>8.852669</v>
+        <v>8.8526690000000006</v>
       </c>
       <c r="C4" s="1">
-        <v>1247.700000</v>
+        <v>1247.7</v>
       </c>
       <c r="D4" s="1">
-        <v>-310.893000</v>
+        <v>-310.89299999999997</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>31879.913854</v>
+        <v>31879.913853999999</v>
       </c>
       <c r="G4" s="1">
-        <v>8.855532</v>
+        <v>8.8555320000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1273.280000</v>
+        <v>1273.28</v>
       </c>
       <c r="I4" s="1">
-        <v>-268.348000</v>
+        <v>-268.34800000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>31890.671123</v>
       </c>
       <c r="L4" s="1">
-        <v>8.858520</v>
+        <v>8.8585200000000004</v>
       </c>
       <c r="M4" s="1">
-        <v>1309.990000</v>
+        <v>1309.99</v>
       </c>
       <c r="N4" s="1">
-        <v>-204.922000</v>
+        <v>-204.922</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>31901.149569</v>
+        <v>31901.149569000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.861430</v>
+        <v>8.8614300000000004</v>
       </c>
       <c r="R4" s="1">
-        <v>1322.060000</v>
+        <v>1322.06</v>
       </c>
       <c r="S4" s="1">
-        <v>-186.441000</v>
+        <v>-186.441</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>31911.738195</v>
+        <v>31911.738195000002</v>
       </c>
       <c r="V4" s="1">
-        <v>8.864372</v>
+        <v>8.8643719999999995</v>
       </c>
       <c r="W4" s="1">
-        <v>1335.230000</v>
+        <v>1335.23</v>
       </c>
       <c r="X4" s="1">
-        <v>-172.522000</v>
+        <v>-172.52199999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>31921.909623</v>
       </c>
       <c r="AA4" s="1">
-        <v>8.867197</v>
+        <v>8.8671970000000009</v>
       </c>
       <c r="AB4" s="1">
-        <v>1352.500000</v>
+        <v>1352.5</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.887000</v>
+        <v>-169.887</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>31932.450105</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.870125</v>
+        <v>8.8701249999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>1365.380000</v>
+        <v>1365.38</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.331000</v>
+        <v>-179.33099999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>31942.588331</v>
+        <v>31942.588330999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.872941</v>
+        <v>8.8729410000000009</v>
       </c>
       <c r="AL4" s="1">
-        <v>1385.910000</v>
+        <v>1385.91</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.018000</v>
+        <v>-209.018</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>31952.876350</v>
+        <v>31952.876349999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>8.875799</v>
+        <v>8.8757990000000007</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1407.540000</v>
+        <v>1407.54</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.781000</v>
+        <v>-252.78100000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>31963.538846</v>
+        <v>31963.538845999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>8.878761</v>
+        <v>8.8787610000000008</v>
       </c>
       <c r="AV4" s="1">
-        <v>1431.910000</v>
+        <v>1431.91</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.815000</v>
+        <v>-312.815</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>31973.895809</v>
+        <v>31973.895809000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8.881638</v>
+        <v>8.8816380000000006</v>
       </c>
       <c r="BA4" s="1">
-        <v>1451.170000</v>
+        <v>1451.17</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.049000</v>
+        <v>-365.04899999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>31984.512179</v>
+        <v>31984.512179000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>8.884587</v>
+        <v>8.8845869999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1535.880000</v>
+        <v>1535.88</v>
       </c>
       <c r="BG4" s="1">
-        <v>-614.269000</v>
+        <v>-614.26900000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>31995.566515</v>
+        <v>31995.566514999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>8.887657</v>
+        <v>8.8876570000000008</v>
       </c>
       <c r="BK4" s="1">
-        <v>1689.650000</v>
+        <v>1689.65</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1061.780000</v>
+        <v>-1061.78</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>32007.470004</v>
+        <v>32007.470003999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>8.890964</v>
+        <v>8.8909640000000003</v>
       </c>
       <c r="BP4" s="1">
-        <v>1983.280000</v>
+        <v>1983.28</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1838.000000</v>
+        <v>-1838</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>32018.747576</v>
+        <v>32018.747576000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>8.894097</v>
+        <v>8.8940970000000004</v>
       </c>
       <c r="BU4" s="1">
-        <v>2370.210000</v>
+        <v>2370.21</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2737.860000</v>
+        <v>-2737.86</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>32029.395658</v>
+        <v>32029.395658000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>8.897054</v>
+        <v>8.8970540000000007</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2851.590000</v>
+        <v>2851.59</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3717.480000</v>
+        <v>-3717.48</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>32040.517977</v>
       </c>
       <c r="CD4" s="1">
-        <v>8.900144</v>
+        <v>8.9001439999999992</v>
       </c>
       <c r="CE4" s="1">
-        <v>4261.670000</v>
+        <v>4261.67</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6086.830000</v>
+        <v>-6086.83</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>31869.955178</v>
       </c>
       <c r="B5" s="1">
-        <v>8.852765</v>
+        <v>8.8527649999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>1248.470000</v>
+        <v>1248.47</v>
       </c>
       <c r="D5" s="1">
-        <v>-310.976000</v>
+        <v>-310.976</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>31880.571052</v>
+        <v>31880.571051999999</v>
       </c>
       <c r="G5" s="1">
-        <v>8.855714</v>
+        <v>8.8557140000000008</v>
       </c>
       <c r="H5" s="1">
-        <v>1274.020000</v>
+        <v>1274.02</v>
       </c>
       <c r="I5" s="1">
-        <v>-268.349000</v>
+        <v>-268.34899999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>31891.051518</v>
@@ -1282,3534 +1698,3534 @@
         <v>8.858625</v>
       </c>
       <c r="M5" s="1">
-        <v>1309.850000</v>
+        <v>1309.8499999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-204.507000</v>
+        <v>-204.50700000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>31901.542896</v>
+        <v>31901.542895999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>8.861540</v>
+        <v>8.8615399999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1321.990000</v>
+        <v>1321.99</v>
       </c>
       <c r="S5" s="1">
-        <v>-186.426000</v>
+        <v>-186.42599999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>31912.082422</v>
+        <v>31912.082421999999</v>
       </c>
       <c r="V5" s="1">
-        <v>8.864467</v>
+        <v>8.8644669999999994</v>
       </c>
       <c r="W5" s="1">
-        <v>1335.250000</v>
+        <v>1335.25</v>
       </c>
       <c r="X5" s="1">
-        <v>-172.446000</v>
+        <v>-172.446</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>31922.257317</v>
       </c>
       <c r="AA5" s="1">
-        <v>8.867294</v>
+        <v>8.8672939999999993</v>
       </c>
       <c r="AB5" s="1">
-        <v>1352.550000</v>
+        <v>1352.55</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.931000</v>
+        <v>-169.93100000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>31932.796312</v>
+        <v>31932.796311999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.870221</v>
+        <v>8.8702210000000008</v>
       </c>
       <c r="AG5" s="1">
-        <v>1365.390000</v>
+        <v>1365.39</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.313000</v>
+        <v>-179.31299999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>31943.007977</v>
+        <v>31943.007977000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>8.873058</v>
+        <v>8.8730580000000003</v>
       </c>
       <c r="AL5" s="1">
-        <v>1385.960000</v>
+        <v>1385.96</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.002000</v>
+        <v>-209.00200000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>31953.312333</v>
+        <v>31953.312333000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>8.875920</v>
+        <v>8.8759200000000007</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1407.520000</v>
+        <v>1407.52</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.806000</v>
+        <v>-252.80600000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>31963.857278</v>
+        <v>31963.857277999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>8.878849</v>
+        <v>8.8788490000000007</v>
       </c>
       <c r="AV5" s="1">
-        <v>1431.900000</v>
+        <v>1431.9</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.841000</v>
+        <v>-312.84100000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>31974.252464</v>
+        <v>31974.252464000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>8.881737</v>
+        <v>8.8817369999999993</v>
       </c>
       <c r="BA5" s="1">
-        <v>1451.120000</v>
+        <v>1451.12</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.066000</v>
+        <v>-365.06599999999997</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>31984.872306</v>
+        <v>31984.872306000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>8.884687</v>
+        <v>8.8846869999999996</v>
       </c>
       <c r="BF5" s="1">
-        <v>1535.900000</v>
+        <v>1535.9</v>
       </c>
       <c r="BG5" s="1">
-        <v>-614.264000</v>
+        <v>-614.26400000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>31995.940526</v>
+        <v>31995.940525999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>8.887761</v>
+        <v>8.8877609999999994</v>
       </c>
       <c r="BK5" s="1">
-        <v>1689.620000</v>
+        <v>1689.62</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1061.820000</v>
+        <v>-1061.82</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>32008.289434</v>
+        <v>32008.289433999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>8.891192</v>
+        <v>8.8911920000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1983.200000</v>
+        <v>1983.2</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1838.120000</v>
+        <v>-1838.12</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>32019.170133</v>
       </c>
       <c r="BT5" s="1">
-        <v>8.894214</v>
+        <v>8.8942139999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>2370.460000</v>
+        <v>2370.46</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2738.130000</v>
+        <v>-2738.13</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>32029.828859</v>
+        <v>32029.828859000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>8.897175</v>
+        <v>8.8971750000000007</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2852.140000</v>
+        <v>2852.14</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3717.180000</v>
+        <v>-3717.18</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>32041.059611</v>
+        <v>32041.059611000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>8.900294</v>
+        <v>8.9002940000000006</v>
       </c>
       <c r="CE5" s="1">
-        <v>4269.560000</v>
+        <v>4269.5600000000004</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6103.510000</v>
+        <v>-6103.51</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>31870.611385</v>
       </c>
       <c r="B6" s="1">
-        <v>8.852948</v>
+        <v>8.8529479999999996</v>
       </c>
       <c r="C6" s="1">
-        <v>1248.080000</v>
+        <v>1248.08</v>
       </c>
       <c r="D6" s="1">
-        <v>-311.150000</v>
+        <v>-311.14999999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>31880.952515</v>
+        <v>31880.952515000001</v>
       </c>
       <c r="G6" s="1">
-        <v>8.855820</v>
+        <v>8.8558199999999996</v>
       </c>
       <c r="H6" s="1">
-        <v>1274.120000</v>
+        <v>1274.1199999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-269.400000</v>
+        <v>-269.39999999999998</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>31891.397265</v>
       </c>
       <c r="L6" s="1">
-        <v>8.858721</v>
+        <v>8.8587209999999992</v>
       </c>
       <c r="M6" s="1">
-        <v>1309.910000</v>
+        <v>1309.9100000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-204.822000</v>
+        <v>-204.822</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>31901.891089</v>
+        <v>31901.891089000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.861636</v>
+        <v>8.8616360000000007</v>
       </c>
       <c r="R6" s="1">
-        <v>1322.010000</v>
+        <v>1322.01</v>
       </c>
       <c r="S6" s="1">
-        <v>-186.417000</v>
+        <v>-186.417</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>31912.426643</v>
+        <v>31912.426642999999</v>
       </c>
       <c r="V6" s="1">
-        <v>8.864563</v>
+        <v>8.8645630000000004</v>
       </c>
       <c r="W6" s="1">
-        <v>1335.140000</v>
+        <v>1335.14</v>
       </c>
       <c r="X6" s="1">
-        <v>-172.429000</v>
+        <v>-172.429</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>31922.678948</v>
+        <v>31922.678948000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.867411</v>
+        <v>8.8674110000000006</v>
       </c>
       <c r="AB6" s="1">
-        <v>1352.410000</v>
+        <v>1352.41</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.739000</v>
+        <v>-169.739</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>31933.211494</v>
+        <v>31933.211493999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>8.870337</v>
+        <v>8.8703369999999993</v>
       </c>
       <c r="AG6" s="1">
-        <v>1365.430000</v>
+        <v>1365.43</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.288000</v>
+        <v>-179.28800000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>31943.283721</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.873134</v>
+        <v>8.8731340000000003</v>
       </c>
       <c r="AL6" s="1">
-        <v>1385.960000</v>
+        <v>1385.96</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.997000</v>
+        <v>-208.99700000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>31953.601500</v>
+        <v>31953.601500000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>8.876000</v>
+        <v>8.8759999999999994</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1407.530000</v>
+        <v>1407.53</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.790000</v>
+        <v>-252.79</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>31964.222829</v>
+        <v>31964.222828999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>8.878951</v>
+        <v>8.8789510000000007</v>
       </c>
       <c r="AV6" s="1">
-        <v>1431.910000</v>
+        <v>1431.91</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.834000</v>
+        <v>-312.834</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>31974.615009</v>
+        <v>31974.615009000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>8.881838</v>
+        <v>8.8818380000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1451.140000</v>
+        <v>1451.14</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.046000</v>
+        <v>-365.04599999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>31985.234882</v>
+        <v>31985.234882000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>8.884787</v>
+        <v>8.8847869999999993</v>
       </c>
       <c r="BF6" s="1">
-        <v>1535.870000</v>
+        <v>1535.87</v>
       </c>
       <c r="BG6" s="1">
-        <v>-614.294000</v>
+        <v>-614.29399999999998</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>31996.691442</v>
+        <v>31996.691441999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>8.887970</v>
+        <v>8.8879699999999993</v>
       </c>
       <c r="BK6" s="1">
-        <v>1689.590000</v>
+        <v>1689.59</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1061.760000</v>
+        <v>-1061.76</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>32008.705043</v>
+        <v>32008.705043000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>8.891307</v>
+        <v>8.8913069999999994</v>
       </c>
       <c r="BP6" s="1">
-        <v>1983.130000</v>
+        <v>1983.13</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1838.120000</v>
+        <v>-1838.12</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>32019.574900</v>
+        <v>32019.5749</v>
       </c>
       <c r="BT6" s="1">
-        <v>8.894326</v>
+        <v>8.8943259999999995</v>
       </c>
       <c r="BU6" s="1">
-        <v>2370.730000</v>
+        <v>2370.73</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2737.660000</v>
+        <v>-2737.66</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>32030.250268</v>
       </c>
       <c r="BY6" s="1">
-        <v>8.897292</v>
+        <v>8.8972920000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2851.450000</v>
+        <v>2851.45</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3716.690000</v>
+        <v>-3716.69</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>32041.912231</v>
+        <v>32041.912230999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>8.900531</v>
+        <v>8.9005310000000009</v>
       </c>
       <c r="CE6" s="1">
-        <v>4258.240000</v>
+        <v>4258.24</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6088.780000</v>
+        <v>-6088.78</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>31870.971481</v>
       </c>
       <c r="B7" s="1">
-        <v>8.853048</v>
+        <v>8.8530479999999994</v>
       </c>
       <c r="C7" s="1">
-        <v>1247.980000</v>
+        <v>1247.98</v>
       </c>
       <c r="D7" s="1">
-        <v>-310.966000</v>
+        <v>-310.96600000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>31881.298188</v>
+        <v>31881.298188000001</v>
       </c>
       <c r="G7" s="1">
-        <v>8.855916</v>
+        <v>8.8559160000000006</v>
       </c>
       <c r="H7" s="1">
-        <v>1274.680000</v>
+        <v>1274.68</v>
       </c>
       <c r="I7" s="1">
-        <v>-268.395000</v>
+        <v>-268.39499999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>31891.742941</v>
       </c>
       <c r="L7" s="1">
-        <v>8.858817</v>
+        <v>8.8588170000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>1310.060000</v>
+        <v>1310.06</v>
       </c>
       <c r="N7" s="1">
-        <v>-204.770000</v>
+        <v>-204.77</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>31902.239333</v>
+        <v>31902.239333000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>8.861733</v>
+        <v>8.8617329999999992</v>
       </c>
       <c r="R7" s="1">
-        <v>1322.000000</v>
+        <v>1322</v>
       </c>
       <c r="S7" s="1">
-        <v>-186.411000</v>
+        <v>-186.411</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>31912.847713</v>
+        <v>31912.847712999999</v>
       </c>
       <c r="V7" s="1">
-        <v>8.864680</v>
+        <v>8.8646799999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1335.160000</v>
+        <v>1335.16</v>
       </c>
       <c r="X7" s="1">
-        <v>-172.461000</v>
+        <v>-172.46100000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>31922.956708</v>
+        <v>31922.956708000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>8.867488</v>
+        <v>8.8674879999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>1352.470000</v>
+        <v>1352.47</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.770000</v>
+        <v>-169.77</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>31933.487734</v>
+        <v>31933.487733999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>8.870413</v>
+        <v>8.8704129999999992</v>
       </c>
       <c r="AG7" s="1">
-        <v>1365.440000</v>
+        <v>1365.44</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.320000</v>
+        <v>-179.32</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>31943.633402</v>
+        <v>31943.633401999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>8.873232</v>
+        <v>8.8732319999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>1385.930000</v>
+        <v>1385.93</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.003000</v>
+        <v>-209.00299999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>31953.958620</v>
+        <v>31953.958620000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>8.876100</v>
+        <v>8.8760999999999992</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1407.470000</v>
+        <v>1407.47</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.792000</v>
+        <v>-252.792</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>31964.586895</v>
       </c>
       <c r="AU7" s="1">
-        <v>8.879052</v>
+        <v>8.8790519999999997</v>
       </c>
       <c r="AV7" s="1">
-        <v>1431.930000</v>
+        <v>1431.93</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.822000</v>
+        <v>-312.822</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>31975.331727</v>
+        <v>31975.331727000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>8.882037</v>
+        <v>8.8820370000000004</v>
       </c>
       <c r="BA7" s="1">
-        <v>1451.090000</v>
+        <v>1451.09</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.058000</v>
+        <v>-365.05799999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>31985.956529</v>
+        <v>31985.956528999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>8.884988</v>
+        <v>8.8849879999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1535.920000</v>
+        <v>1535.92</v>
       </c>
       <c r="BG7" s="1">
-        <v>-614.287000</v>
+        <v>-614.28700000000003</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>31997.066915</v>
+        <v>31997.066914999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8.888074</v>
+        <v>8.8880739999999996</v>
       </c>
       <c r="BK7" s="1">
-        <v>1689.640000</v>
+        <v>1689.64</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1061.820000</v>
+        <v>-1061.82</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>32009.103330</v>
+        <v>32009.103330000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>8.891418</v>
+        <v>8.8914179999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1983.170000</v>
+        <v>1983.17</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1838.030000</v>
+        <v>-1838.03</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>32019.991508</v>
+        <v>32019.991507999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>8.894442</v>
+        <v>8.8944419999999997</v>
       </c>
       <c r="BU7" s="1">
-        <v>2370.900000</v>
+        <v>2370.9</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2737.720000</v>
+        <v>-2737.72</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>32030.975950</v>
+        <v>32030.97595</v>
       </c>
       <c r="BY7" s="1">
-        <v>8.897493</v>
+        <v>8.8974930000000008</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2850.940000</v>
+        <v>2850.94</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3717.020000</v>
+        <v>-3717.02</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>32042.137880</v>
+        <v>32042.137879999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.900594</v>
+        <v>8.9005939999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4260.330000</v>
+        <v>4260.33</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6089.730000</v>
+        <v>-6089.73</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>31871.324136</v>
+        <v>31871.324135999999</v>
       </c>
       <c r="B8" s="1">
-        <v>8.853146</v>
+        <v>8.8531460000000006</v>
       </c>
       <c r="C8" s="1">
-        <v>1248.140000</v>
+        <v>1248.1400000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-311.060000</v>
+        <v>-311.06</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>31881.644890</v>
+        <v>31881.64489</v>
       </c>
       <c r="G8" s="1">
-        <v>8.856012</v>
+        <v>8.8560119999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>1274.050000</v>
+        <v>1274.05</v>
       </c>
       <c r="I8" s="1">
-        <v>-268.385000</v>
+        <v>-268.38499999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>31892.159581</v>
       </c>
       <c r="L8" s="1">
-        <v>8.858933</v>
+        <v>8.8589330000000004</v>
       </c>
       <c r="M8" s="1">
-        <v>1310.130000</v>
+        <v>1310.1300000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-205.122000</v>
+        <v>-205.12200000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>31902.659391</v>
+        <v>31902.659391000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.861850</v>
+        <v>8.8618500000000004</v>
       </c>
       <c r="R8" s="1">
-        <v>1321.960000</v>
+        <v>1321.96</v>
       </c>
       <c r="S8" s="1">
-        <v>-186.356000</v>
+        <v>-186.35599999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>31913.137377</v>
+        <v>31913.137376999999</v>
       </c>
       <c r="V8" s="1">
-        <v>8.864760</v>
+        <v>8.8647600000000004</v>
       </c>
       <c r="W8" s="1">
-        <v>1335.270000</v>
+        <v>1335.27</v>
       </c>
       <c r="X8" s="1">
-        <v>-172.319000</v>
+        <v>-172.31899999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>31923.304371</v>
+        <v>31923.304370999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.867585</v>
+        <v>8.8675850000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1352.610000</v>
+        <v>1352.61</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.654000</v>
+        <v>-169.654</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>31933.835926</v>
       </c>
       <c r="AF8" s="1">
-        <v>8.870510</v>
+        <v>8.8705099999999995</v>
       </c>
       <c r="AG8" s="1">
-        <v>1365.410000</v>
+        <v>1365.41</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.266000</v>
+        <v>-179.26599999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>31943.983577</v>
+        <v>31943.983576999999</v>
       </c>
       <c r="AK8" s="1">
         <v>8.873329</v>
       </c>
       <c r="AL8" s="1">
-        <v>1385.930000</v>
+        <v>1385.93</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.015000</v>
+        <v>-209.01499999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>31954.695178</v>
+        <v>31954.695178000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>8.876304</v>
+        <v>8.8763039999999993</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1407.500000</v>
+        <v>1407.5</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.790000</v>
+        <v>-252.79</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>31965.316012</v>
+        <v>31965.316011999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>8.879254</v>
+        <v>8.8792539999999995</v>
       </c>
       <c r="AV8" s="1">
-        <v>1431.900000</v>
+        <v>1431.9</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.814000</v>
+        <v>-312.81400000000002</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>31975.691854</v>
+        <v>31975.691854000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>8.882137</v>
+        <v>8.8821370000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1451.140000</v>
+        <v>1451.14</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.004000</v>
+        <v>-365.00400000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>31986.314640</v>
+        <v>31986.314640000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>8.885087</v>
+        <v>8.8850870000000004</v>
       </c>
       <c r="BF8" s="1">
-        <v>1535.890000</v>
+        <v>1535.89</v>
       </c>
       <c r="BG8" s="1">
-        <v>-614.258000</v>
+        <v>-614.25800000000004</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>31997.442914</v>
+        <v>31997.442913999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>8.888179</v>
+        <v>8.8881789999999992</v>
       </c>
       <c r="BK8" s="1">
-        <v>1689.560000</v>
+        <v>1689.56</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1061.740000</v>
+        <v>-1061.74</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>32009.834433</v>
       </c>
       <c r="BO8" s="1">
-        <v>8.891621</v>
+        <v>8.8916210000000007</v>
       </c>
       <c r="BP8" s="1">
-        <v>1983.190000</v>
+        <v>1983.19</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1838.090000</v>
+        <v>-1838.09</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>32020.706772</v>
+        <v>32020.706772000001</v>
       </c>
       <c r="BT8" s="1">
         <v>8.894641</v>
       </c>
       <c r="BU8" s="1">
-        <v>2371.110000</v>
+        <v>2371.11</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2737.470000</v>
+        <v>-2737.47</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>32031.098423</v>
+        <v>32031.098422999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>8.897527</v>
+        <v>8.8975270000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2851.290000</v>
+        <v>2851.29</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3717.080000</v>
+        <v>-3717.08</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>32042.655739</v>
+        <v>32042.655739000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>8.900738</v>
+        <v>8.9007380000000005</v>
       </c>
       <c r="CE8" s="1">
-        <v>4267.970000</v>
+        <v>4267.97</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6101.530000</v>
+        <v>-6101.53</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>31871.883128</v>
+        <v>31871.883128000001</v>
       </c>
       <c r="B9" s="1">
-        <v>8.853301</v>
+        <v>8.8533010000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1248.000000</v>
+        <v>1248</v>
       </c>
       <c r="D9" s="1">
-        <v>-310.558000</v>
+        <v>-310.55799999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>31882.069466</v>
+        <v>31882.069466000001</v>
       </c>
       <c r="G9" s="1">
-        <v>8.856130</v>
+        <v>8.8561300000000003</v>
       </c>
       <c r="H9" s="1">
-        <v>1274.380000</v>
+        <v>1274.3800000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-268.864000</v>
+        <v>-268.86399999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>31892.436881</v>
+        <v>31892.436881000001</v>
       </c>
       <c r="L9" s="1">
-        <v>8.859010</v>
+        <v>8.8590099999999996</v>
       </c>
       <c r="M9" s="1">
-        <v>1310.080000</v>
+        <v>1310.08</v>
       </c>
       <c r="N9" s="1">
-        <v>-204.719000</v>
+        <v>-204.71899999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>31902.938646</v>
+        <v>31902.938645999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>8.861927</v>
+        <v>8.8619269999999997</v>
       </c>
       <c r="R9" s="1">
-        <v>1322.040000</v>
+        <v>1322.04</v>
       </c>
       <c r="S9" s="1">
-        <v>-186.311000</v>
+        <v>-186.31100000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>31913.478130</v>
+        <v>31913.47813</v>
       </c>
       <c r="V9" s="1">
-        <v>8.864855</v>
+        <v>8.8648550000000004</v>
       </c>
       <c r="W9" s="1">
-        <v>1335.210000</v>
+        <v>1335.21</v>
       </c>
       <c r="X9" s="1">
-        <v>-172.507000</v>
+        <v>-172.50700000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>31923.655540</v>
+        <v>31923.65554</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.867682</v>
+        <v>8.8676820000000003</v>
       </c>
       <c r="AB9" s="1">
-        <v>1352.480000</v>
+        <v>1352.48</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.778000</v>
+        <v>-169.77799999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>31934.167749</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.870602</v>
+        <v>8.8706019999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1365.430000</v>
+        <v>1365.43</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.350000</v>
+        <v>-179.35</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>31944.678471</v>
+        <v>31944.678470999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.873522</v>
+        <v>8.8735219999999995</v>
       </c>
       <c r="AL9" s="1">
-        <v>1385.930000</v>
+        <v>1385.93</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.993000</v>
+        <v>-208.99299999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>31955.036434</v>
+        <v>31955.036434000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.876399</v>
+        <v>8.8763989999999993</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1407.500000</v>
+        <v>1407.5</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.817000</v>
+        <v>-252.81700000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>31965.707851</v>
+        <v>31965.707850999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>8.879363</v>
+        <v>8.8793629999999997</v>
       </c>
       <c r="AV9" s="1">
-        <v>1431.910000</v>
+        <v>1431.91</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.798000</v>
+        <v>-312.798</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>31976.048446</v>
+        <v>31976.048446000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.882236</v>
+        <v>8.8822360000000007</v>
       </c>
       <c r="BA9" s="1">
-        <v>1451.160000</v>
+        <v>1451.16</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.033000</v>
+        <v>-365.03300000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>31986.677711</v>
       </c>
       <c r="BE9" s="1">
-        <v>8.885188</v>
+        <v>8.8851879999999994</v>
       </c>
       <c r="BF9" s="1">
-        <v>1535.860000</v>
+        <v>1535.86</v>
       </c>
       <c r="BG9" s="1">
-        <v>-614.282000</v>
+        <v>-614.28200000000004</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>31998.129376</v>
+        <v>31998.129376000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>8.888369</v>
+        <v>8.8883690000000009</v>
       </c>
       <c r="BK9" s="1">
-        <v>1689.720000</v>
+        <v>1689.72</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1061.790000</v>
+        <v>-1061.79</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>32009.949010</v>
+        <v>32009.94901</v>
       </c>
       <c r="BO9" s="1">
-        <v>8.891653</v>
+        <v>8.8916529999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1983.120000</v>
+        <v>1983.12</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1837.950000</v>
+        <v>-1837.95</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>32020.844659</v>
+        <v>32020.844658999999</v>
       </c>
       <c r="BT9" s="1">
         <v>8.894679</v>
       </c>
       <c r="BU9" s="1">
-        <v>2371.330000</v>
+        <v>2371.33</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2737.190000</v>
+        <v>-2737.19</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>32031.545378</v>
+        <v>32031.545377999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>8.897651</v>
+        <v>8.8976509999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2851.670000</v>
+        <v>2851.67</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3717.770000</v>
+        <v>-3717.77</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>32043.175046</v>
       </c>
       <c r="CD9" s="1">
-        <v>8.900882</v>
+        <v>8.9008819999999993</v>
       </c>
       <c r="CE9" s="1">
-        <v>4259.540000</v>
+        <v>4259.54</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6101.330000</v>
+        <v>-6101.33</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>31872.001712</v>
+        <v>31872.001712000001</v>
       </c>
       <c r="B10" s="1">
-        <v>8.853334</v>
+        <v>8.8533340000000003</v>
       </c>
       <c r="C10" s="1">
-        <v>1247.800000</v>
+        <v>1247.8</v>
       </c>
       <c r="D10" s="1">
-        <v>-311.258000</v>
+        <v>-311.25799999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>31882.347756</v>
+        <v>31882.347755999999</v>
       </c>
       <c r="G10" s="1">
-        <v>8.856208</v>
+        <v>8.8562080000000005</v>
       </c>
       <c r="H10" s="1">
-        <v>1273.520000</v>
+        <v>1273.52</v>
       </c>
       <c r="I10" s="1">
-        <v>-268.805000</v>
+        <v>-268.80500000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>31892.782556</v>
+        <v>31892.782555999998</v>
       </c>
       <c r="L10" s="1">
-        <v>8.859106</v>
+        <v>8.8591060000000006</v>
       </c>
       <c r="M10" s="1">
-        <v>1309.960000</v>
+        <v>1309.96</v>
       </c>
       <c r="N10" s="1">
-        <v>-204.848000</v>
+        <v>-204.84800000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>31903.290063</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.862025</v>
+        <v>8.8620249999999992</v>
       </c>
       <c r="R10" s="1">
-        <v>1322.060000</v>
+        <v>1322.06</v>
       </c>
       <c r="S10" s="1">
-        <v>-186.402000</v>
+        <v>-186.40199999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>31913.819880</v>
+        <v>31913.819879999999</v>
       </c>
       <c r="V10" s="1">
-        <v>8.864950</v>
+        <v>8.8649500000000003</v>
       </c>
       <c r="W10" s="1">
-        <v>1335.230000</v>
+        <v>1335.23</v>
       </c>
       <c r="X10" s="1">
-        <v>-172.510000</v>
+        <v>-172.51</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>31924.349479</v>
       </c>
       <c r="AA10" s="1">
-        <v>8.867875</v>
+        <v>8.8678749999999997</v>
       </c>
       <c r="AB10" s="1">
-        <v>1352.500000</v>
+        <v>1352.5</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.820000</v>
+        <v>-169.82</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>31934.862646</v>
+        <v>31934.862646000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>8.870795</v>
+        <v>8.8707949999999993</v>
       </c>
       <c r="AG10" s="1">
-        <v>1365.380000</v>
+        <v>1365.38</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.307000</v>
+        <v>-179.30699999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>31945.028188</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.873619</v>
+        <v>8.8736189999999997</v>
       </c>
       <c r="AL10" s="1">
-        <v>1385.880000</v>
+        <v>1385.88</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.015000</v>
+        <v>-209.01499999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>31955.397017</v>
+        <v>31955.397016999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>8.876499</v>
+        <v>8.8764990000000008</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1407.510000</v>
+        <v>1407.51</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.792000</v>
+        <v>-252.792</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>31966.071420</v>
+        <v>31966.07142</v>
       </c>
       <c r="AU10" s="1">
-        <v>8.879464</v>
+        <v>8.8794640000000005</v>
       </c>
       <c r="AV10" s="1">
-        <v>1431.880000</v>
+        <v>1431.88</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.822000</v>
+        <v>-312.822</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>31976.717549</v>
+        <v>31976.717549000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>8.882422</v>
       </c>
       <c r="BA10" s="1">
-        <v>1451.140000</v>
+        <v>1451.14</v>
       </c>
       <c r="BB10" s="1">
-        <v>-365.034000</v>
+        <v>-365.03399999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>31987.353262</v>
+        <v>31987.353262000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>8.885376</v>
+        <v>8.8853760000000008</v>
       </c>
       <c r="BF10" s="1">
-        <v>1535.920000</v>
+        <v>1535.92</v>
       </c>
       <c r="BG10" s="1">
-        <v>-614.296000</v>
+        <v>-614.29600000000005</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>31998.567842</v>
       </c>
       <c r="BJ10" s="1">
-        <v>8.888491</v>
+        <v>8.8884910000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1689.520000</v>
+        <v>1689.52</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1061.810000</v>
+        <v>-1061.81</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>32010.346800</v>
+        <v>32010.346799999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>8.891763</v>
+        <v>8.8917629999999992</v>
       </c>
       <c r="BP10" s="1">
-        <v>1983.090000</v>
+        <v>1983.09</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1838.020000</v>
+        <v>-1838.02</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>32021.283091</v>
+        <v>32021.283091000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>8.894801</v>
+        <v>8.8948009999999993</v>
       </c>
       <c r="BU10" s="1">
-        <v>2371.700000</v>
+        <v>2371.6999999999998</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2736.950000</v>
+        <v>-2736.95</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>32031.978324</v>
       </c>
       <c r="BY10" s="1">
-        <v>8.897772</v>
+        <v>8.8977719999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2850.970000</v>
+        <v>2850.97</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3716.710000</v>
+        <v>-3716.71</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>32043.730569</v>
+        <v>32043.730568999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>8.901036</v>
+        <v>8.9010359999999995</v>
       </c>
       <c r="CE10" s="1">
-        <v>4260.320000</v>
+        <v>4260.32</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6088.670000</v>
+        <v>-6088.67</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>31872.343101</v>
+        <v>31872.343100999999</v>
       </c>
       <c r="B11" s="1">
-        <v>8.853429</v>
+        <v>8.8534290000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>1248.140000</v>
+        <v>1248.1400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-311.266000</v>
+        <v>-311.26600000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>31882.694932</v>
+        <v>31882.694931999999</v>
       </c>
       <c r="G11" s="1">
-        <v>8.856304</v>
+        <v>8.8563039999999997</v>
       </c>
       <c r="H11" s="1">
-        <v>1273.880000</v>
+        <v>1273.8800000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-268.472000</v>
+        <v>-268.47199999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>31893.128267</v>
       </c>
       <c r="L11" s="1">
-        <v>8.859202</v>
+        <v>8.8592019999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>1310.220000</v>
+        <v>1310.22</v>
       </c>
       <c r="N11" s="1">
-        <v>-205.060000</v>
+        <v>-205.06</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>31903.638990</v>
+        <v>31903.638989999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>8.862122</v>
+        <v>8.8621219999999994</v>
       </c>
       <c r="R11" s="1">
-        <v>1322.000000</v>
+        <v>1322</v>
       </c>
       <c r="S11" s="1">
-        <v>-186.448000</v>
+        <v>-186.44800000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>31914.508816</v>
+        <v>31914.508816000001</v>
       </c>
       <c r="V11" s="1">
-        <v>8.865141</v>
+        <v>8.8651409999999995</v>
       </c>
       <c r="W11" s="1">
-        <v>1335.190000</v>
+        <v>1335.19</v>
       </c>
       <c r="X11" s="1">
-        <v>-172.419000</v>
+        <v>-172.41900000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>31924.700146</v>
+        <v>31924.700145999999</v>
       </c>
       <c r="AA11" s="1">
         <v>8.867972</v>
       </c>
       <c r="AB11" s="1">
-        <v>1352.490000</v>
+        <v>1352.49</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.718000</v>
+        <v>-169.71799999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>31935.206410</v>
+        <v>31935.206409999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>8.870891</v>
+        <v>8.8708910000000003</v>
       </c>
       <c r="AG11" s="1">
-        <v>1365.370000</v>
+        <v>1365.37</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.298000</v>
+        <v>-179.298</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>31945.377832</v>
+        <v>31945.377831999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>8.873716</v>
+        <v>8.8737159999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1385.940000</v>
+        <v>1385.94</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.974000</v>
+        <v>-208.97399999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>31956.068105</v>
+        <v>31956.068104999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>8.876686</v>
+        <v>8.8766859999999994</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1407.520000</v>
+        <v>1407.52</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.790000</v>
+        <v>-252.79</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>31966.747498</v>
+        <v>31966.747498000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>8.879652</v>
+        <v>8.8796520000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1431.950000</v>
+        <v>1431.95</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.788000</v>
+        <v>-312.78800000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>31977.125262</v>
+        <v>31977.125262000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>8.882535</v>
+        <v>8.8825350000000007</v>
       </c>
       <c r="BA11" s="1">
-        <v>1451.120000</v>
+        <v>1451.12</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.992000</v>
+        <v>-364.99200000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>31987.786270</v>
+        <v>31987.786270000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>8.885496</v>
+        <v>8.8854959999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1535.870000</v>
+        <v>1535.87</v>
       </c>
       <c r="BG11" s="1">
-        <v>-614.249000</v>
+        <v>-614.24900000000002</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>31998.946784</v>
       </c>
       <c r="BJ11" s="1">
-        <v>8.888596</v>
+        <v>8.8885959999999997</v>
       </c>
       <c r="BK11" s="1">
-        <v>1689.690000</v>
+        <v>1689.69</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1061.670000</v>
+        <v>-1061.67</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>32010.768433</v>
+        <v>32010.768433000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>8.891880</v>
+        <v>8.8918800000000005</v>
       </c>
       <c r="BP11" s="1">
-        <v>1983.110000</v>
+        <v>1983.11</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1838.010000</v>
+        <v>-1838.01</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>32021.862914</v>
+        <v>32021.862914000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>8.894962</v>
+        <v>8.8949619999999996</v>
       </c>
       <c r="BU11" s="1">
-        <v>2371.710000</v>
+        <v>2371.71</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2736.350000</v>
+        <v>-2736.35</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>32032.397941</v>
+        <v>32032.397940999999</v>
       </c>
       <c r="BY11" s="1">
         <v>8.897888</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2850.850000</v>
+        <v>2850.85</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3717.550000</v>
+        <v>-3717.55</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>32044.256293</v>
+        <v>32044.256292999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>8.901182</v>
+        <v>8.9011820000000004</v>
       </c>
       <c r="CE11" s="1">
-        <v>4265.200000</v>
+        <v>4265.2</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6101.990000</v>
+        <v>-6101.99</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>31872.686150</v>
+        <v>31872.686150000001</v>
       </c>
       <c r="B12" s="1">
-        <v>8.853524</v>
+        <v>8.8535240000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>1248.160000</v>
+        <v>1248.1600000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-311.164000</v>
+        <v>-311.16399999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>31883.038681</v>
+        <v>31883.038681000002</v>
       </c>
       <c r="G12" s="1">
-        <v>8.856400</v>
+        <v>8.8564000000000007</v>
       </c>
       <c r="H12" s="1">
-        <v>1274.100000</v>
+        <v>1274.0999999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-268.735000</v>
+        <v>-268.73500000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>31893.819692</v>
+        <v>31893.819692000001</v>
       </c>
       <c r="L12" s="1">
         <v>8.859394</v>
       </c>
       <c r="M12" s="1">
-        <v>1309.640000</v>
+        <v>1309.6400000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-205.316000</v>
+        <v>-205.316</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>31904.333884</v>
       </c>
       <c r="Q12" s="1">
-        <v>8.862315</v>
+        <v>8.8623150000000006</v>
       </c>
       <c r="R12" s="1">
-        <v>1321.930000</v>
+        <v>1321.93</v>
       </c>
       <c r="S12" s="1">
-        <v>-186.438000</v>
+        <v>-186.43799999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>31914.853074</v>
+        <v>31914.853073999999</v>
       </c>
       <c r="V12" s="1">
-        <v>8.865237</v>
+        <v>8.8652370000000005</v>
       </c>
       <c r="W12" s="1">
-        <v>1335.190000</v>
+        <v>1335.19</v>
       </c>
       <c r="X12" s="1">
-        <v>-172.310000</v>
+        <v>-172.31</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>31925.047811</v>
       </c>
       <c r="AA12" s="1">
-        <v>8.868069</v>
+        <v>8.8680690000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1352.590000</v>
+        <v>1352.59</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.726000</v>
+        <v>-169.726</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>31935.549603</v>
+        <v>31935.549602999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.870986</v>
+        <v>8.8709860000000003</v>
       </c>
       <c r="AG12" s="1">
-        <v>1365.370000</v>
+        <v>1365.37</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.270000</v>
+        <v>-179.27</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>31946.037013</v>
+        <v>31946.037013000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>8.873899</v>
+        <v>8.8738989999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>1385.940000</v>
+        <v>1385.94</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.995000</v>
+        <v>-208.995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>31956.507097</v>
+        <v>31956.507097000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>8.876808</v>
+        <v>8.8768080000000005</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1407.490000</v>
+        <v>1407.49</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.783000</v>
+        <v>-252.78299999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>31967.201307</v>
+        <v>31967.201306999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>8.879778</v>
+        <v>8.8797779999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1431.940000</v>
+        <v>1431.94</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.806000</v>
+        <v>-312.80599999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>31977.512638</v>
       </c>
       <c r="AZ12" s="1">
-        <v>8.882642</v>
+        <v>8.8826420000000006</v>
       </c>
       <c r="BA12" s="1">
-        <v>1451.130000</v>
+        <v>1451.13</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.011000</v>
+        <v>-365.01100000000002</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>31988.148846</v>
       </c>
       <c r="BE12" s="1">
-        <v>8.885597</v>
+        <v>8.8855970000000006</v>
       </c>
       <c r="BF12" s="1">
-        <v>1535.890000</v>
+        <v>1535.89</v>
       </c>
       <c r="BG12" s="1">
-        <v>-614.264000</v>
+        <v>-614.26400000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>31999.321729</v>
+        <v>31999.321728999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>8.888700</v>
+        <v>8.8887</v>
       </c>
       <c r="BK12" s="1">
-        <v>1689.550000</v>
+        <v>1689.55</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1061.780000</v>
+        <v>-1061.78</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>32011.199919</v>
+        <v>32011.199918999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>8.892000</v>
+        <v>8.8919999999999995</v>
       </c>
       <c r="BP12" s="1">
-        <v>1983.080000</v>
+        <v>1983.08</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1838.230000</v>
+        <v>-1838.23</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>32022.123810</v>
+        <v>32022.123810000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>8.895034</v>
+        <v>8.8950340000000008</v>
       </c>
       <c r="BU12" s="1">
-        <v>2371.880000</v>
+        <v>2371.88</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2736.230000</v>
+        <v>-2736.23</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>32032.819540</v>
+        <v>32032.81954</v>
       </c>
       <c r="BY12" s="1">
-        <v>8.898005</v>
+        <v>8.8980049999999995</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2851.350000</v>
+        <v>2851.35</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3717.200000</v>
+        <v>-3717.2</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>32044.779075</v>
+        <v>32044.779074999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>8.901328</v>
+        <v>8.9013279999999995</v>
       </c>
       <c r="CE12" s="1">
-        <v>4276.620000</v>
+        <v>4276.62</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6086.450000</v>
+        <v>-6086.45</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>31873.367655</v>
+        <v>31873.367654999998</v>
       </c>
       <c r="B13" s="1">
-        <v>8.853713</v>
+        <v>8.8537130000000008</v>
       </c>
       <c r="C13" s="1">
-        <v>1248.210000</v>
+        <v>1248.21</v>
       </c>
       <c r="D13" s="1">
-        <v>-310.814000</v>
+        <v>-310.81400000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>31883.727097</v>
+        <v>31883.727096999999</v>
       </c>
       <c r="G13" s="1">
-        <v>8.856591</v>
+        <v>8.8565909999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1275.120000</v>
+        <v>1275.1199999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-269.015000</v>
+        <v>-269.01499999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>31894.164447</v>
+        <v>31894.164446999999</v>
       </c>
       <c r="L13" s="1">
-        <v>8.859490</v>
+        <v>8.8594899999999992</v>
       </c>
       <c r="M13" s="1">
-        <v>1310.300000</v>
+        <v>1310.3</v>
       </c>
       <c r="N13" s="1">
-        <v>-205.062000</v>
+        <v>-205.06200000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>31904.680104</v>
+        <v>31904.680103999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>8.862411</v>
+        <v>8.8624109999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>1321.960000</v>
+        <v>1321.96</v>
       </c>
       <c r="S13" s="1">
-        <v>-186.371000</v>
+        <v>-186.37100000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>31915.193807</v>
       </c>
       <c r="V13" s="1">
-        <v>8.865332</v>
+        <v>8.8653320000000004</v>
       </c>
       <c r="W13" s="1">
-        <v>1335.070000</v>
+        <v>1335.07</v>
       </c>
       <c r="X13" s="1">
-        <v>-172.227000</v>
+        <v>-172.227</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>31925.703547</v>
+        <v>31925.703547000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>8.868251</v>
+        <v>8.8682510000000008</v>
       </c>
       <c r="AB13" s="1">
-        <v>1352.400000</v>
+        <v>1352.4</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.617000</v>
+        <v>-169.61699999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>31936.202836</v>
       </c>
       <c r="AF13" s="1">
-        <v>8.871167</v>
+        <v>8.8711669999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>1365.350000</v>
+        <v>1365.35</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.204000</v>
+        <v>-179.20400000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>31946.422438</v>
+        <v>31946.422438000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>8.874006</v>
+        <v>8.8740059999999996</v>
       </c>
       <c r="AL13" s="1">
-        <v>1385.960000</v>
+        <v>1385.96</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.014000</v>
+        <v>-209.01400000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>31956.865707</v>
+        <v>31956.865707000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>8.876907</v>
+        <v>8.8769069999999992</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1407.510000</v>
+        <v>1407.51</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.768000</v>
+        <v>-252.768</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>31967.564411</v>
+        <v>31967.564410999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.879879</v>
+        <v>8.8798790000000007</v>
       </c>
       <c r="AV13" s="1">
-        <v>1431.910000</v>
+        <v>1431.91</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.799000</v>
+        <v>-312.79899999999998</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>31977.868764</v>
+        <v>31977.868763999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>8.882741</v>
+        <v>8.8827409999999993</v>
       </c>
       <c r="BA13" s="1">
-        <v>1451.130000</v>
+        <v>1451.13</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.970000</v>
+        <v>-364.97</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>31988.564497</v>
+        <v>31988.564496999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>8.885712</v>
+        <v>8.8857119999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1535.870000</v>
+        <v>1535.87</v>
       </c>
       <c r="BG13" s="1">
-        <v>-614.263000</v>
+        <v>-614.26300000000003</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>31999.736415</v>
+        <v>31999.736414999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>8.888816</v>
+        <v>8.8888160000000003</v>
       </c>
       <c r="BK13" s="1">
-        <v>1689.590000</v>
+        <v>1689.59</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1061.680000</v>
+        <v>-1061.68</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>32011.589776</v>
+        <v>32011.589776000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>8.892108</v>
+        <v>8.8921080000000003</v>
       </c>
       <c r="BP13" s="1">
-        <v>1983.020000</v>
+        <v>1983.02</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1838.000000</v>
+        <v>-1838</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>32022.554833</v>
+        <v>32022.554832999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.895154</v>
+        <v>8.8951539999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>2372.130000</v>
+        <v>2372.13</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2735.780000</v>
+        <v>-2735.78</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>32033.247122</v>
+        <v>32033.247122000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>8.898124</v>
+        <v>8.8981239999999993</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2851.440000</v>
+        <v>2851.44</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3716.790000</v>
+        <v>-3716.79</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>32045.315782</v>
+        <v>32045.315782000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>8.901477</v>
+        <v>8.9014769999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4256.950000</v>
+        <v>4256.95</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6092.330000</v>
+        <v>-6092.33</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>31873.709896</v>
       </c>
       <c r="B14" s="1">
-        <v>8.853808</v>
+        <v>8.8538080000000008</v>
       </c>
       <c r="C14" s="1">
-        <v>1248.000000</v>
+        <v>1248</v>
       </c>
       <c r="D14" s="1">
-        <v>-311.026000</v>
+        <v>-311.02600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>31884.072311</v>
       </c>
       <c r="G14" s="1">
-        <v>8.856687</v>
+        <v>8.8566870000000009</v>
       </c>
       <c r="H14" s="1">
-        <v>1273.940000</v>
+        <v>1273.94</v>
       </c>
       <c r="I14" s="1">
-        <v>-268.239000</v>
+        <v>-268.23899999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>31894.512602</v>
+        <v>31894.512601999999</v>
       </c>
       <c r="L14" s="1">
-        <v>8.859587</v>
+        <v>8.8595869999999994</v>
       </c>
       <c r="M14" s="1">
-        <v>1309.790000</v>
+        <v>1309.79</v>
       </c>
       <c r="N14" s="1">
-        <v>-205.122000</v>
+        <v>-205.12200000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>31905.340108</v>
       </c>
       <c r="Q14" s="1">
-        <v>8.862594</v>
+        <v>8.8625939999999996</v>
       </c>
       <c r="R14" s="1">
-        <v>1322.080000</v>
+        <v>1322.08</v>
       </c>
       <c r="S14" s="1">
-        <v>-186.370000</v>
+        <v>-186.37</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>31915.847557</v>
+        <v>31915.847557000001</v>
       </c>
       <c r="V14" s="1">
         <v>8.865513</v>
       </c>
       <c r="W14" s="1">
-        <v>1335.290000</v>
+        <v>1335.29</v>
       </c>
       <c r="X14" s="1">
-        <v>-172.414000</v>
+        <v>-172.41399999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>31926.094399</v>
+        <v>31926.094399000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.868360</v>
+        <v>8.8683599999999991</v>
       </c>
       <c r="AB14" s="1">
-        <v>1352.380000</v>
+        <v>1352.38</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.596000</v>
+        <v>-169.596</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>31936.579795</v>
+        <v>31936.579795000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>8.871272</v>
+        <v>8.8712719999999994</v>
       </c>
       <c r="AG14" s="1">
-        <v>1365.350000</v>
+        <v>1365.35</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.293000</v>
+        <v>-179.29300000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>31946.772612</v>
+        <v>31946.772612000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>8.874104</v>
+        <v>8.8741040000000009</v>
       </c>
       <c r="AL14" s="1">
-        <v>1385.970000</v>
+        <v>1385.97</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.004000</v>
+        <v>-209.00399999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>31957.226264</v>
+        <v>31957.226264000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>8.877007</v>
+        <v>8.8770070000000008</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1407.500000</v>
+        <v>1407.5</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.792000</v>
+        <v>-252.792</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>31967.929432</v>
+        <v>31967.929432000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>8.879980</v>
+        <v>8.8799799999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>1431.890000</v>
+        <v>1431.89</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.796000</v>
+        <v>-312.79599999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>31978.285403</v>
+        <v>31978.285403000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>8.882857</v>
+        <v>8.8828569999999996</v>
       </c>
       <c r="BA14" s="1">
-        <v>1451.110000</v>
+        <v>1451.11</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.014000</v>
+        <v>-365.01400000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>31988.871549</v>
       </c>
       <c r="BE14" s="1">
-        <v>8.885798</v>
+        <v>8.8857979999999994</v>
       </c>
       <c r="BF14" s="1">
-        <v>1535.890000</v>
+        <v>1535.89</v>
       </c>
       <c r="BG14" s="1">
-        <v>-614.238000</v>
+        <v>-614.23800000000006</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>32000.099982</v>
       </c>
       <c r="BJ14" s="1">
-        <v>8.888917</v>
+        <v>8.8889169999999993</v>
       </c>
       <c r="BK14" s="1">
-        <v>1689.610000</v>
+        <v>1689.61</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1061.790000</v>
+        <v>-1061.79</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>32011.985118</v>
+        <v>32011.985118000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>8.892218</v>
+        <v>8.8922179999999997</v>
       </c>
       <c r="BP14" s="1">
-        <v>1982.930000</v>
+        <v>1982.93</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1837.950000</v>
+        <v>-1837.95</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>32022.970977</v>
+        <v>32022.970977000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>8.895270</v>
+        <v>8.89527</v>
       </c>
       <c r="BU14" s="1">
-        <v>2371.790000</v>
+        <v>2371.79</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2735.540000</v>
+        <v>-2735.54</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>32033.661910</v>
+        <v>32033.661909999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>8.898239</v>
+        <v>8.8982390000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2851.480000</v>
+        <v>2851.48</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3717.810000</v>
+        <v>-3717.81</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>32045.856882</v>
       </c>
       <c r="CD14" s="1">
-        <v>8.901627</v>
+        <v>8.9016269999999995</v>
       </c>
       <c r="CE14" s="1">
-        <v>4277.200000</v>
+        <v>4277.2</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6100.940000</v>
+        <v>-6100.94</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>31874.050176</v>
+        <v>31874.050176000001</v>
       </c>
       <c r="B15" s="1">
-        <v>8.853903</v>
+        <v>8.8539030000000007</v>
       </c>
       <c r="C15" s="1">
-        <v>1247.880000</v>
+        <v>1247.8800000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-310.639000</v>
+        <v>-310.63900000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>31884.419016</v>
       </c>
       <c r="G15" s="1">
-        <v>8.856783</v>
+        <v>8.8567830000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1273.580000</v>
+        <v>1273.58</v>
       </c>
       <c r="I15" s="1">
-        <v>-268.750000</v>
+        <v>-268.75</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>31895.171289</v>
+        <v>31895.171289000002</v>
       </c>
       <c r="L15" s="1">
-        <v>8.859770</v>
+        <v>8.8597699999999993</v>
       </c>
       <c r="M15" s="1">
-        <v>1309.740000</v>
+        <v>1309.74</v>
       </c>
       <c r="N15" s="1">
-        <v>-204.697000</v>
+        <v>-204.697</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>31905.727643</v>
+        <v>31905.727642999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.862702</v>
+        <v>8.8627020000000005</v>
       </c>
       <c r="R15" s="1">
-        <v>1322.080000</v>
+        <v>1322.08</v>
       </c>
       <c r="S15" s="1">
-        <v>-186.411000</v>
+        <v>-186.411</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>31916.225998</v>
+        <v>31916.225998000002</v>
       </c>
       <c r="V15" s="1">
-        <v>8.865618</v>
+        <v>8.8656179999999996</v>
       </c>
       <c r="W15" s="1">
-        <v>1335.230000</v>
+        <v>1335.23</v>
       </c>
       <c r="X15" s="1">
-        <v>-172.393000</v>
+        <v>-172.393</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>31926.440079</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.868456</v>
+        <v>8.8684560000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1352.480000</v>
+        <v>1352.48</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.845000</v>
+        <v>-169.845</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>31936.926002</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.871368</v>
+        <v>8.8713680000000004</v>
       </c>
       <c r="AG15" s="1">
-        <v>1365.360000</v>
+        <v>1365.36</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.326000</v>
+        <v>-179.32599999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>31947.122292</v>
       </c>
       <c r="AK15" s="1">
-        <v>8.874201</v>
+        <v>8.8742009999999993</v>
       </c>
       <c r="AL15" s="1">
-        <v>1385.950000</v>
+        <v>1385.95</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.997000</v>
+        <v>-208.99700000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>31957.653816</v>
+        <v>31957.653815999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>8.877126</v>
+        <v>8.8771260000000005</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1407.490000</v>
+        <v>1407.49</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.761000</v>
+        <v>-252.761</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>31968.351074</v>
+        <v>31968.351073999998</v>
       </c>
       <c r="AU15" s="1">
-        <v>8.880098</v>
+        <v>8.8800980000000003</v>
       </c>
       <c r="AV15" s="1">
-        <v>1431.920000</v>
+        <v>1431.92</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.780000</v>
+        <v>-312.77999999999997</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>31978.587466</v>
+        <v>31978.587466000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>8.882941</v>
+        <v>8.8829410000000006</v>
       </c>
       <c r="BA15" s="1">
-        <v>1451.140000</v>
+        <v>1451.14</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.050000</v>
+        <v>-365.05</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>31989.230655</v>
+        <v>31989.230654999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>8.885897</v>
+        <v>8.8858969999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1535.870000</v>
+        <v>1535.87</v>
       </c>
       <c r="BG15" s="1">
-        <v>-614.236000</v>
+        <v>-614.23599999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>32000.473468</v>
       </c>
       <c r="BJ15" s="1">
-        <v>8.889020</v>
+        <v>8.8890200000000004</v>
       </c>
       <c r="BK15" s="1">
-        <v>1689.580000</v>
+        <v>1689.58</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1061.730000</v>
+        <v>-1061.73</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>32012.405725</v>
+        <v>32012.405725000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>8.892335</v>
+        <v>8.8923349999999992</v>
       </c>
       <c r="BP15" s="1">
-        <v>1982.970000</v>
+        <v>1982.97</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1837.860000</v>
+        <v>-1837.86</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>32023.391615</v>
       </c>
       <c r="BT15" s="1">
-        <v>8.895387</v>
+        <v>8.8953869999999995</v>
       </c>
       <c r="BU15" s="1">
-        <v>2371.790000</v>
+        <v>2371.79</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2735.520000</v>
+        <v>-2735.52</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>32034.115585</v>
       </c>
       <c r="BY15" s="1">
-        <v>8.898365</v>
+        <v>8.8983650000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2851.420000</v>
+        <v>2851.42</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3716.630000</v>
+        <v>-3716.63</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>32046.398513</v>
       </c>
       <c r="CD15" s="1">
-        <v>8.901777</v>
+        <v>8.9017769999999992</v>
       </c>
       <c r="CE15" s="1">
-        <v>4261.040000</v>
+        <v>4261.04</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6080.980000</v>
+        <v>-6080.98</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>31874.699443</v>
+        <v>31874.699443000001</v>
       </c>
       <c r="B16" s="1">
-        <v>8.854083</v>
+        <v>8.8540829999999993</v>
       </c>
       <c r="C16" s="1">
-        <v>1248.120000</v>
+        <v>1248.1199999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-310.626000</v>
+        <v>-310.62599999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>31885.065830</v>
+        <v>31885.06583</v>
       </c>
       <c r="G16" s="1">
-        <v>8.856963</v>
+        <v>8.8569630000000004</v>
       </c>
       <c r="H16" s="1">
-        <v>1274.160000</v>
+        <v>1274.1600000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-268.261000</v>
+        <v>-268.26100000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>31895.548744</v>
       </c>
       <c r="L16" s="1">
-        <v>8.859875</v>
+        <v>8.8598750000000006</v>
       </c>
       <c r="M16" s="1">
-        <v>1310.070000</v>
+        <v>1310.07</v>
       </c>
       <c r="N16" s="1">
-        <v>-205.143000</v>
+        <v>-205.143</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>31906.078846</v>
       </c>
       <c r="Q16" s="1">
-        <v>8.862800</v>
+        <v>8.8628</v>
       </c>
       <c r="R16" s="1">
-        <v>1321.950000</v>
+        <v>1321.95</v>
       </c>
       <c r="S16" s="1">
-        <v>-186.423000</v>
+        <v>-186.423</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>31916.568738</v>
+        <v>31916.568738000002</v>
       </c>
       <c r="V16" s="1">
-        <v>8.865714</v>
+        <v>8.8657140000000005</v>
       </c>
       <c r="W16" s="1">
-        <v>1335.240000</v>
+        <v>1335.24</v>
       </c>
       <c r="X16" s="1">
-        <v>-172.415000</v>
+        <v>-172.41499999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>31926.789759</v>
+        <v>31926.789758999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.868553</v>
+        <v>8.8685530000000004</v>
       </c>
       <c r="AB16" s="1">
-        <v>1352.470000</v>
+        <v>1352.47</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.816000</v>
+        <v>-169.816</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>31937.278162</v>
+        <v>31937.278161999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>8.871466</v>
+        <v>8.8714659999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1365.420000</v>
+        <v>1365.42</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.254000</v>
+        <v>-179.25399999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>31947.540389</v>
+        <v>31947.540389000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.874317</v>
+        <v>8.8743169999999996</v>
       </c>
       <c r="AL16" s="1">
-        <v>1385.940000</v>
+        <v>1385.94</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.018000</v>
+        <v>-209.018</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>31957.949925</v>
+        <v>31957.949925000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.877208</v>
+        <v>8.8772079999999995</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1407.460000</v>
+        <v>1407.46</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.738000</v>
+        <v>-252.738</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>31968.659079</v>
+        <v>31968.659079000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>8.880183</v>
+        <v>8.8801830000000006</v>
       </c>
       <c r="AV16" s="1">
-        <v>1431.910000</v>
+        <v>1431.91</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.771000</v>
+        <v>-312.77100000000002</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>31978.943595</v>
+        <v>31978.943595000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>8.883040</v>
+        <v>8.8830399999999994</v>
       </c>
       <c r="BA16" s="1">
-        <v>1451.150000</v>
+        <v>1451.15</v>
       </c>
       <c r="BB16" s="1">
-        <v>-365.009000</v>
+        <v>-365.00900000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>31989.592204</v>
       </c>
       <c r="BE16" s="1">
-        <v>8.885998</v>
+        <v>8.8859980000000007</v>
       </c>
       <c r="BF16" s="1">
-        <v>1535.920000</v>
+        <v>1535.92</v>
       </c>
       <c r="BG16" s="1">
-        <v>-614.258000</v>
+        <v>-614.25800000000004</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>32000.849901</v>
+        <v>32000.849901000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>8.889125</v>
+        <v>8.8891249999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1689.550000</v>
+        <v>1689.55</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1061.680000</v>
+        <v>-1061.68</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>32012.819891</v>
+        <v>32012.819890999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>8.892450</v>
+        <v>8.8924500000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1983.020000</v>
+        <v>1983.02</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1837.980000</v>
+        <v>-1837.98</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>32023.802767</v>
+        <v>32023.802767000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.895501</v>
+        <v>8.8955009999999994</v>
       </c>
       <c r="BU16" s="1">
-        <v>2372.170000</v>
+        <v>2372.17</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2735.140000</v>
+        <v>-2735.14</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>32034.566977</v>
+        <v>32034.566976999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>8.898491</v>
+        <v>8.8984909999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2851.120000</v>
+        <v>2851.12</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3716.440000</v>
+        <v>-3716.44</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>32046.936177</v>
       </c>
       <c r="CD16" s="1">
-        <v>8.901927</v>
+        <v>8.9019270000000006</v>
       </c>
       <c r="CE16" s="1">
-        <v>4265.840000</v>
+        <v>4265.84</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6101.650000</v>
+        <v>-6101.65</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>31875.077891</v>
+        <v>31875.077891000001</v>
       </c>
       <c r="B17" s="1">
-        <v>8.854188</v>
+        <v>8.8541880000000006</v>
       </c>
       <c r="C17" s="1">
-        <v>1247.900000</v>
+        <v>1247.9000000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-311.150000</v>
+        <v>-311.14999999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>31885.449701</v>
+        <v>31885.449701000001</v>
       </c>
       <c r="G17" s="1">
-        <v>8.857069</v>
+        <v>8.8570689999999992</v>
       </c>
       <c r="H17" s="1">
-        <v>1273.380000</v>
+        <v>1273.3800000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-268.051000</v>
+        <v>-268.05099999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>31895.896935</v>
+        <v>31895.896935000001</v>
       </c>
       <c r="L17" s="1">
-        <v>8.859971</v>
+        <v>8.8599709999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>1310.130000</v>
+        <v>1310.1300000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-204.971000</v>
+        <v>-204.971</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>31906.428030</v>
+        <v>31906.428029999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>8.862897</v>
+        <v>8.8628970000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>1322.030000</v>
+        <v>1322.03</v>
       </c>
       <c r="S17" s="1">
-        <v>-186.418000</v>
+        <v>-186.41800000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>31916.914452</v>
+        <v>31916.914452000001</v>
       </c>
       <c r="V17" s="1">
-        <v>8.865810</v>
+        <v>8.8658099999999997</v>
       </c>
       <c r="W17" s="1">
-        <v>1335.260000</v>
+        <v>1335.26</v>
       </c>
       <c r="X17" s="1">
-        <v>-172.397000</v>
+        <v>-172.39699999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>31927.210863</v>
       </c>
       <c r="AA17" s="1">
-        <v>8.868670</v>
+        <v>8.8686699999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>1352.520000</v>
+        <v>1352.52</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.605000</v>
+        <v>-169.60499999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>31937.699761</v>
       </c>
       <c r="AF17" s="1">
-        <v>8.871583</v>
+        <v>8.8715829999999993</v>
       </c>
       <c r="AG17" s="1">
-        <v>1365.380000</v>
+        <v>1365.38</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.224000</v>
+        <v>-179.22399999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>31947.818643</v>
+        <v>31947.818642999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>8.874394</v>
+        <v>8.8743940000000006</v>
       </c>
       <c r="AL17" s="1">
-        <v>1385.930000</v>
+        <v>1385.93</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.017000</v>
+        <v>-209.017</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>31958.305061</v>
+        <v>31958.305060999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>8.877307</v>
+        <v>8.8773070000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1407.500000</v>
+        <v>1407.5</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.782000</v>
+        <v>-252.78200000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>31969.023112</v>
+        <v>31969.023111999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>8.880284</v>
+        <v>8.8802839999999996</v>
       </c>
       <c r="AV17" s="1">
-        <v>1431.900000</v>
+        <v>1431.9</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.795000</v>
+        <v>-312.79500000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>31979.305177</v>
+        <v>31979.305176999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>8.883140</v>
+        <v>8.8831399999999991</v>
       </c>
       <c r="BA17" s="1">
-        <v>1451.110000</v>
+        <v>1451.11</v>
       </c>
       <c r="BB17" s="1">
-        <v>-365.044000</v>
+        <v>-365.04399999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>31990.312404</v>
       </c>
       <c r="BE17" s="1">
-        <v>8.886198</v>
+        <v>8.8861980000000003</v>
       </c>
       <c r="BF17" s="1">
-        <v>1535.900000</v>
+        <v>1535.9</v>
       </c>
       <c r="BG17" s="1">
-        <v>-614.265000</v>
+        <v>-614.26499999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>32001.622668</v>
       </c>
       <c r="BJ17" s="1">
-        <v>8.889340</v>
+        <v>8.8893400000000007</v>
       </c>
       <c r="BK17" s="1">
-        <v>1689.570000</v>
+        <v>1689.57</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1061.710000</v>
+        <v>-1061.71</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>32013.226574</v>
       </c>
       <c r="BO17" s="1">
-        <v>8.892563</v>
+        <v>8.8925630000000009</v>
       </c>
       <c r="BP17" s="1">
-        <v>1983.050000</v>
+        <v>1983.05</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1837.930000</v>
+        <v>-1837.93</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>32024.217918</v>
+        <v>32024.217917999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>8.895616</v>
+        <v>8.8956160000000004</v>
       </c>
       <c r="BU17" s="1">
-        <v>2371.810000</v>
+        <v>2371.81</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2735.030000</v>
+        <v>-2735.03</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>32034.987552</v>
+        <v>32034.987551999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>8.898608</v>
+        <v>8.8986079999999994</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2851.020000</v>
+        <v>2851.02</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3717.010000</v>
+        <v>-3717.01</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>32047.786319</v>
+        <v>32047.786318999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>8.902163</v>
+        <v>8.9021629999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>4259.970000</v>
+        <v>4259.97</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6086.520000</v>
+        <v>-6086.52</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>31875.420099</v>
+        <v>31875.420098999999</v>
       </c>
       <c r="B18" s="1">
-        <v>8.854283</v>
+        <v>8.8542830000000006</v>
       </c>
       <c r="C18" s="1">
-        <v>1248.000000</v>
+        <v>1248</v>
       </c>
       <c r="D18" s="1">
-        <v>-310.627000</v>
+        <v>-310.62700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>31885.798425</v>
+        <v>31885.798425000001</v>
       </c>
       <c r="G18" s="1">
-        <v>8.857166</v>
+        <v>8.8571659999999994</v>
       </c>
       <c r="H18" s="1">
-        <v>1273.570000</v>
+        <v>1273.57</v>
       </c>
       <c r="I18" s="1">
-        <v>-268.661000</v>
+        <v>-268.661</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>31896.241688</v>
+        <v>31896.241687999998</v>
       </c>
       <c r="L18" s="1">
-        <v>8.860067</v>
+        <v>8.8600670000000008</v>
       </c>
       <c r="M18" s="1">
-        <v>1310.350000</v>
+        <v>1310.3499999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-204.692000</v>
+        <v>-204.69200000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>31906.859513</v>
+        <v>31906.859512999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>8.863017</v>
+        <v>8.8630169999999993</v>
       </c>
       <c r="R18" s="1">
-        <v>1321.980000</v>
+        <v>1321.98</v>
       </c>
       <c r="S18" s="1">
-        <v>-186.356000</v>
+        <v>-186.35599999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>31917.329565</v>
       </c>
       <c r="V18" s="1">
-        <v>8.865925</v>
+        <v>8.8659250000000007</v>
       </c>
       <c r="W18" s="1">
-        <v>1335.210000</v>
+        <v>1335.21</v>
       </c>
       <c r="X18" s="1">
-        <v>-172.376000</v>
+        <v>-172.376</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>31927.491598</v>
+        <v>31927.491598000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.868748</v>
+        <v>8.8687480000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1352.460000</v>
+        <v>1352.46</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.602000</v>
+        <v>-169.602</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>31937.961650</v>
+        <v>31937.961650000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>8.871656</v>
+        <v>8.8716559999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>1365.370000</v>
+        <v>1365.37</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.291000</v>
+        <v>-179.291</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>31948.169824</v>
+        <v>31948.169824000001</v>
       </c>
       <c r="AK18" s="1">
         <v>8.874492</v>
       </c>
       <c r="AL18" s="1">
-        <v>1385.950000</v>
+        <v>1385.95</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.992000</v>
+        <v>-208.99199999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>31958.668407</v>
+        <v>31958.668407000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>8.877408</v>
+        <v>8.8774080000000009</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1407.500000</v>
+        <v>1407.5</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.793000</v>
+        <v>-252.79300000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>31969.388695</v>
+        <v>31969.388695000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>8.880386</v>
+        <v>8.8803859999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>1431.930000</v>
+        <v>1431.93</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.793000</v>
+        <v>-312.79300000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>31980.027354</v>
+        <v>31980.027354000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>8.883341</v>
+        <v>8.8833409999999997</v>
       </c>
       <c r="BA18" s="1">
-        <v>1451.140000</v>
+        <v>1451.14</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.033000</v>
+        <v>-365.03300000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>31990.675467</v>
+        <v>31990.675467000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>8.886299</v>
+        <v>8.8862989999999993</v>
       </c>
       <c r="BF18" s="1">
-        <v>1535.880000</v>
+        <v>1535.88</v>
       </c>
       <c r="BG18" s="1">
-        <v>-614.195000</v>
+        <v>-614.19500000000005</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>32001.998637</v>
+        <v>32001.998637000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.889444</v>
+        <v>8.8894439999999992</v>
       </c>
       <c r="BK18" s="1">
-        <v>1689.640000</v>
+        <v>1689.64</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1061.740000</v>
+        <v>-1061.74</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>32013.618909</v>
+        <v>32013.618909000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>8.892672</v>
+        <v>8.8926719999999992</v>
       </c>
       <c r="BP18" s="1">
-        <v>1982.840000</v>
+        <v>1982.84</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1837.990000</v>
+        <v>-1837.99</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>32024.940094</v>
+        <v>32024.940094000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>8.895817</v>
+        <v>8.8958169999999992</v>
       </c>
       <c r="BU18" s="1">
-        <v>2371.800000</v>
+        <v>2371.8000000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2734.790000</v>
+        <v>-2734.79</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>32035.711712</v>
@@ -4818,527 +5234,527 @@
         <v>8.898809</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2851.380000</v>
+        <v>2851.38</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3717.290000</v>
+        <v>-3717.29</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>32048.015999</v>
+        <v>32048.015998999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>8.902227</v>
+        <v>8.9022269999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4258.550000</v>
+        <v>4258.55</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6084.510000</v>
+        <v>-6084.51</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>31875.757414</v>
       </c>
       <c r="B19" s="1">
-        <v>8.854377</v>
+        <v>8.8543769999999995</v>
       </c>
       <c r="C19" s="1">
-        <v>1248.200000</v>
+        <v>1248.2</v>
       </c>
       <c r="D19" s="1">
-        <v>-311.201000</v>
+        <v>-311.20100000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>31886.142652</v>
+        <v>31886.142651999999</v>
       </c>
       <c r="G19" s="1">
-        <v>8.857262</v>
+        <v>8.8572620000000004</v>
       </c>
       <c r="H19" s="1">
-        <v>1273.700000</v>
+        <v>1273.7</v>
       </c>
       <c r="I19" s="1">
-        <v>-267.951000</v>
+        <v>-267.95100000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>31896.670695</v>
+        <v>31896.670695000001</v>
       </c>
       <c r="L19" s="1">
-        <v>8.860186</v>
+        <v>8.8601860000000006</v>
       </c>
       <c r="M19" s="1">
-        <v>1310.020000</v>
+        <v>1310.02</v>
       </c>
       <c r="N19" s="1">
-        <v>-204.982000</v>
+        <v>-204.982</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>31907.124377</v>
       </c>
       <c r="Q19" s="1">
-        <v>8.863090</v>
+        <v>8.8630899999999997</v>
       </c>
       <c r="R19" s="1">
-        <v>1322.000000</v>
+        <v>1322</v>
       </c>
       <c r="S19" s="1">
-        <v>-186.317000</v>
+        <v>-186.31700000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>31917.622334</v>
       </c>
       <c r="V19" s="1">
-        <v>8.866006</v>
+        <v>8.8660060000000005</v>
       </c>
       <c r="W19" s="1">
-        <v>1335.230000</v>
+        <v>1335.23</v>
       </c>
       <c r="X19" s="1">
-        <v>-172.439000</v>
+        <v>-172.43899999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>31927.840783</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.868845</v>
+        <v>8.8688450000000003</v>
       </c>
       <c r="AB19" s="1">
-        <v>1352.660000</v>
+        <v>1352.66</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.714000</v>
+        <v>-169.714</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>31938.306367</v>
+        <v>31938.306367000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>8.871752</v>
+        <v>8.8717520000000007</v>
       </c>
       <c r="AG19" s="1">
-        <v>1365.380000</v>
+        <v>1365.38</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.314000</v>
+        <v>-179.31399999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>31948.519010</v>
+        <v>31948.51901</v>
       </c>
       <c r="AK19" s="1">
-        <v>8.874589</v>
+        <v>8.8745890000000003</v>
       </c>
       <c r="AL19" s="1">
-        <v>1385.950000</v>
+        <v>1385.95</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.999000</v>
+        <v>-208.999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>31959.395269</v>
+        <v>31959.395269000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>8.877610</v>
+        <v>8.8776100000000007</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1407.500000</v>
+        <v>1407.5</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.794000</v>
+        <v>-252.79400000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>31970.116294</v>
+        <v>31970.116293999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>8.880588</v>
+        <v>8.8805879999999995</v>
       </c>
       <c r="AV19" s="1">
-        <v>1431.900000</v>
+        <v>1431.9</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.790000</v>
+        <v>-312.79000000000002</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>31980.405836</v>
+        <v>31980.405836000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>8.883446</v>
+        <v>8.8834459999999993</v>
       </c>
       <c r="BA19" s="1">
-        <v>1451.120000</v>
+        <v>1451.12</v>
       </c>
       <c r="BB19" s="1">
-        <v>-365.011000</v>
+        <v>-365.01100000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>31991.036587</v>
+        <v>31991.036586999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>8.886399</v>
+        <v>8.8863990000000008</v>
       </c>
       <c r="BF19" s="1">
-        <v>1535.850000</v>
+        <v>1535.85</v>
       </c>
       <c r="BG19" s="1">
-        <v>-614.223000</v>
+        <v>-614.22299999999996</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>32002.375099</v>
+        <v>32002.375099000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>8.889549</v>
+        <v>8.8895490000000006</v>
       </c>
       <c r="BK19" s="1">
-        <v>1689.570000</v>
+        <v>1689.57</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1061.700000</v>
+        <v>-1061.7</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>32014.360461</v>
       </c>
       <c r="BO19" s="1">
-        <v>8.892878</v>
+        <v>8.8928779999999996</v>
       </c>
       <c r="BP19" s="1">
-        <v>1982.980000</v>
+        <v>1982.98</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1837.930000</v>
+        <v>-1837.93</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>32025.063102</v>
       </c>
       <c r="BT19" s="1">
-        <v>8.895851</v>
+        <v>8.8958510000000004</v>
       </c>
       <c r="BU19" s="1">
-        <v>2371.640000</v>
+        <v>2371.64</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2734.580000</v>
+        <v>-2734.58</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>32035.832735</v>
       </c>
       <c r="BY19" s="1">
-        <v>8.898842</v>
+        <v>8.8988420000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2851.250000</v>
+        <v>2851.25</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3717.540000</v>
+        <v>-3717.54</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>32048.534813</v>
+        <v>32048.534812999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>8.902371</v>
+        <v>8.9023710000000005</v>
       </c>
       <c r="CE19" s="1">
-        <v>4261.550000</v>
+        <v>4261.55</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6102.620000</v>
+        <v>-6102.62</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>31876.178978</v>
       </c>
       <c r="B20" s="1">
-        <v>8.854494</v>
+        <v>8.8544940000000008</v>
       </c>
       <c r="C20" s="1">
-        <v>1248.120000</v>
+        <v>1248.1199999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-310.717000</v>
+        <v>-310.71699999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>31886.564708</v>
+        <v>31886.564708000002</v>
       </c>
       <c r="G20" s="1">
-        <v>8.857379</v>
+        <v>8.8573789999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1275.080000</v>
+        <v>1275.08</v>
       </c>
       <c r="I20" s="1">
-        <v>-269.040000</v>
+        <v>-269.04000000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>31896.950966</v>
       </c>
       <c r="L20" s="1">
-        <v>8.860264</v>
+        <v>8.8602640000000008</v>
       </c>
       <c r="M20" s="1">
-        <v>1310.210000</v>
+        <v>1310.21</v>
       </c>
       <c r="N20" s="1">
-        <v>-205.127000</v>
+        <v>-205.12700000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>31907.472578</v>
+        <v>31907.472578000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>8.863187</v>
+        <v>8.8631869999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1322.000000</v>
+        <v>1322</v>
       </c>
       <c r="S20" s="1">
-        <v>-186.385000</v>
+        <v>-186.38499999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>31917.966426</v>
+        <v>31917.966425999999</v>
       </c>
       <c r="V20" s="1">
-        <v>8.866102</v>
+        <v>8.8661019999999997</v>
       </c>
       <c r="W20" s="1">
-        <v>1335.240000</v>
+        <v>1335.24</v>
       </c>
       <c r="X20" s="1">
-        <v>-172.350000</v>
+        <v>-172.35</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>31928.189501</v>
+        <v>31928.189501000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>8.868942</v>
+        <v>8.8689420000000005</v>
       </c>
       <c r="AB20" s="1">
-        <v>1352.530000</v>
+        <v>1352.53</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.761000</v>
+        <v>-169.761</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>31938.989856</v>
       </c>
       <c r="AF20" s="1">
-        <v>8.871942</v>
+        <v>8.8719420000000007</v>
       </c>
       <c r="AG20" s="1">
-        <v>1365.360000</v>
+        <v>1365.36</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.293000</v>
+        <v>-179.29300000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>31949.214881</v>
       </c>
       <c r="AK20" s="1">
-        <v>8.874782</v>
+        <v>8.8747819999999997</v>
       </c>
       <c r="AL20" s="1">
-        <v>1385.930000</v>
+        <v>1385.93</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.995000</v>
+        <v>-208.995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>31959.769283</v>
+        <v>31959.769283000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>8.877714</v>
+        <v>8.8777139999999992</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1407.520000</v>
+        <v>1407.52</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.793000</v>
+        <v>-252.79300000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>31970.509621</v>
+        <v>31970.509621000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.880697</v>
+        <v>8.8806969999999996</v>
       </c>
       <c r="AV20" s="1">
-        <v>1431.890000</v>
+        <v>1431.89</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.803000</v>
+        <v>-312.803</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>31980.783754</v>
       </c>
       <c r="AZ20" s="1">
-        <v>8.883551</v>
+        <v>8.8835510000000006</v>
       </c>
       <c r="BA20" s="1">
-        <v>1451.130000</v>
+        <v>1451.13</v>
       </c>
       <c r="BB20" s="1">
-        <v>-365.024000</v>
+        <v>-365.024</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>31991.695737</v>
+        <v>31991.695736999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.886582</v>
+        <v>8.8865820000000006</v>
       </c>
       <c r="BF20" s="1">
-        <v>1535.860000</v>
+        <v>1535.86</v>
       </c>
       <c r="BG20" s="1">
-        <v>-614.223000</v>
+        <v>-614.22299999999996</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>32003.050155</v>
+        <v>32003.050155000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>8.889736</v>
+        <v>8.8897359999999992</v>
       </c>
       <c r="BK20" s="1">
-        <v>1689.560000</v>
+        <v>1689.56</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1061.640000</v>
+        <v>-1061.6400000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>32014.472560</v>
+        <v>32014.472559999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>8.892909</v>
+        <v>8.8929089999999995</v>
       </c>
       <c r="BP20" s="1">
-        <v>1983.040000</v>
+        <v>1983.04</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1837.920000</v>
+        <v>-1837.92</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>32025.472796</v>
+        <v>32025.472795999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>8.895965</v>
+        <v>8.8959650000000003</v>
       </c>
       <c r="BU20" s="1">
-        <v>2371.890000</v>
+        <v>2371.89</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2734.120000</v>
+        <v>-2734.12</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>32036.281614</v>
       </c>
       <c r="BY20" s="1">
-        <v>8.898967</v>
+        <v>8.8989670000000007</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2850.960000</v>
+        <v>2850.96</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3716.520000</v>
+        <v>-3716.52</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>32049.051613</v>
@@ -5347,120 +5763,120 @@
         <v>8.902514</v>
       </c>
       <c r="CE20" s="1">
-        <v>4278.760000</v>
+        <v>4278.76</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6096.590000</v>
+        <v>-6096.59</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>31876.457762</v>
+        <v>31876.457761999998</v>
       </c>
       <c r="B21" s="1">
-        <v>8.854572</v>
+        <v>8.8545719999999992</v>
       </c>
       <c r="C21" s="1">
-        <v>1248.110000</v>
+        <v>1248.1099999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-311.213000</v>
+        <v>-311.21300000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>31886.834531</v>
       </c>
       <c r="G21" s="1">
-        <v>8.857454</v>
+        <v>8.8574540000000006</v>
       </c>
       <c r="H21" s="1">
-        <v>1274.380000</v>
+        <v>1274.3800000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-268.469000</v>
+        <v>-268.46899999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>31897.298134</v>
+        <v>31897.298134000001</v>
       </c>
       <c r="L21" s="1">
-        <v>8.860361</v>
+        <v>8.8603609999999993</v>
       </c>
       <c r="M21" s="1">
-        <v>1310.170000</v>
+        <v>1310.17</v>
       </c>
       <c r="N21" s="1">
-        <v>-205.103000</v>
+        <v>-205.10300000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>31907.820760</v>
+        <v>31907.820759999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.863284</v>
+        <v>8.8632840000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>1322.060000</v>
+        <v>1322.06</v>
       </c>
       <c r="S21" s="1">
-        <v>-186.461000</v>
+        <v>-186.46100000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>31918.310650</v>
+        <v>31918.310649999999</v>
       </c>
       <c r="V21" s="1">
-        <v>8.866197</v>
+        <v>8.8661969999999997</v>
       </c>
       <c r="W21" s="1">
-        <v>1335.210000</v>
+        <v>1335.21</v>
       </c>
       <c r="X21" s="1">
-        <v>-172.396000</v>
+        <v>-172.39599999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>31928.884365</v>
+        <v>31928.884365000002</v>
       </c>
       <c r="AA21" s="1">
         <v>8.869135</v>
       </c>
       <c r="AB21" s="1">
-        <v>1352.380000</v>
+        <v>1352.38</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.578000</v>
+        <v>-169.578</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>31939.336892</v>
+        <v>31939.336891999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>8.872038</v>
+        <v>8.8720379999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1365.400000</v>
+        <v>1365.4</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.216000</v>
+        <v>-179.21600000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>31949.565089</v>
@@ -5469,422 +5885,422 @@
         <v>8.874879</v>
       </c>
       <c r="AL21" s="1">
-        <v>1385.920000</v>
+        <v>1385.92</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.012000</v>
+        <v>-209.012</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>31960.132820</v>
+        <v>31960.132819999999</v>
       </c>
       <c r="AP21" s="1">
         <v>8.877815</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1407.510000</v>
+        <v>1407.51</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.792000</v>
+        <v>-252.792</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>31970.873190</v>
+        <v>31970.873189999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>8.880798</v>
+        <v>8.8807980000000004</v>
       </c>
       <c r="AV21" s="1">
-        <v>1431.920000</v>
+        <v>1431.92</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.799000</v>
+        <v>-312.79899999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>31981.456822</v>
       </c>
       <c r="AZ21" s="1">
-        <v>8.883738</v>
+        <v>8.8837379999999992</v>
       </c>
       <c r="BA21" s="1">
-        <v>1451.170000</v>
+        <v>1451.17</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.970000</v>
+        <v>-364.97</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>31992.154569</v>
+        <v>31992.154568999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>8.886710</v>
+        <v>8.8867100000000008</v>
       </c>
       <c r="BF21" s="1">
-        <v>1535.890000</v>
+        <v>1535.89</v>
       </c>
       <c r="BG21" s="1">
-        <v>-614.269000</v>
+        <v>-614.26900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>32003.501018</v>
+        <v>32003.501017999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>8.889861</v>
+        <v>8.8898609999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1689.630000</v>
+        <v>1689.63</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1061.720000</v>
+        <v>-1061.72</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>32014.862875</v>
+        <v>32014.862874999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>8.893017</v>
+        <v>8.8930170000000004</v>
       </c>
       <c r="BP21" s="1">
-        <v>1982.970000</v>
+        <v>1982.97</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1837.890000</v>
+        <v>-1837.89</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>32025.902860</v>
+        <v>32025.902859999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>8.896084</v>
+        <v>8.8960840000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2371.510000</v>
+        <v>2371.5100000000002</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2734.060000</v>
+        <v>-2734.06</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>32036.712637</v>
+        <v>32036.712637000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>8.899087</v>
+        <v>8.8990869999999997</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2850.510000</v>
+        <v>2850.51</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3716.910000</v>
+        <v>-3716.91</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>32049.568446</v>
+        <v>32049.568446000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>8.902658</v>
+        <v>8.9026580000000006</v>
       </c>
       <c r="CE21" s="1">
-        <v>4272.200000</v>
+        <v>4272.2</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6081.390000</v>
+        <v>-6081.39</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>31876.796497</v>
+        <v>31876.796496999999</v>
       </c>
       <c r="B22" s="1">
-        <v>8.854666</v>
+        <v>8.8546659999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1248.080000</v>
+        <v>1248.08</v>
       </c>
       <c r="D22" s="1">
-        <v>-310.894000</v>
+        <v>-310.89400000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>31887.184742</v>
+        <v>31887.184742000001</v>
       </c>
       <c r="G22" s="1">
-        <v>8.857551</v>
+        <v>8.8575510000000008</v>
       </c>
       <c r="H22" s="1">
-        <v>1274.300000</v>
+        <v>1274.3</v>
       </c>
       <c r="I22" s="1">
-        <v>-268.959000</v>
+        <v>-268.959</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>31897.643878</v>
+        <v>31897.643877999999</v>
       </c>
       <c r="L22" s="1">
-        <v>8.860457</v>
+        <v>8.8604570000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>1310.070000</v>
+        <v>1310.07</v>
       </c>
       <c r="N22" s="1">
-        <v>-205.176000</v>
+        <v>-205.17599999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>31908.518663</v>
+        <v>31908.518662999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.863477</v>
+        <v>8.8634769999999996</v>
       </c>
       <c r="R22" s="1">
-        <v>1321.990000</v>
+        <v>1321.99</v>
       </c>
       <c r="S22" s="1">
-        <v>-186.483000</v>
+        <v>-186.483</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>31918.996121</v>
       </c>
       <c r="V22" s="1">
-        <v>8.866388</v>
+        <v>8.8663880000000006</v>
       </c>
       <c r="W22" s="1">
-        <v>1335.170000</v>
+        <v>1335.17</v>
       </c>
       <c r="X22" s="1">
-        <v>-172.362000</v>
+        <v>-172.36199999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>31929.237035</v>
+        <v>31929.237034999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>8.869233</v>
+        <v>8.8692329999999995</v>
       </c>
       <c r="AB22" s="1">
-        <v>1352.440000</v>
+        <v>1352.44</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.979000</v>
+        <v>-169.97900000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>31939.678334</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.872133</v>
+        <v>8.8721329999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>1365.360000</v>
+        <v>1365.36</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.232000</v>
+        <v>-179.232</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>31949.911762</v>
       </c>
       <c r="AK22" s="1">
-        <v>8.874975</v>
+        <v>8.8749749999999992</v>
       </c>
       <c r="AL22" s="1">
-        <v>1385.930000</v>
+        <v>1385.93</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.986000</v>
+        <v>-208.98599999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>31960.803915</v>
       </c>
       <c r="AP22" s="1">
-        <v>8.878001</v>
+        <v>8.8780009999999994</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1407.480000</v>
+        <v>1407.48</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.777000</v>
+        <v>-252.77699999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>31971.501620</v>
+        <v>31971.501619999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>8.880973</v>
+        <v>8.8809729999999991</v>
       </c>
       <c r="AV22" s="1">
-        <v>1431.900000</v>
+        <v>1431.9</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.808000</v>
+        <v>-312.80799999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>31981.865529</v>
+        <v>31981.865528999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>8.883852</v>
+        <v>8.8838519999999992</v>
       </c>
       <c r="BA22" s="1">
-        <v>1451.110000</v>
+        <v>1451.11</v>
       </c>
       <c r="BB22" s="1">
-        <v>-365.020000</v>
+        <v>-365.02</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>31992.513672</v>
+        <v>31992.513672000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>8.886809</v>
+        <v>8.8868089999999995</v>
       </c>
       <c r="BF22" s="1">
-        <v>1535.880000</v>
+        <v>1535.88</v>
       </c>
       <c r="BG22" s="1">
-        <v>-614.224000</v>
+        <v>-614.22400000000005</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>32003.875033</v>
       </c>
       <c r="BJ22" s="1">
-        <v>8.889965</v>
+        <v>8.8899650000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1689.530000</v>
+        <v>1689.53</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1061.710000</v>
+        <v>-1061.71</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>32015.285964</v>
+        <v>32015.285963999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>8.893135</v>
+        <v>8.8931349999999991</v>
       </c>
       <c r="BP22" s="1">
-        <v>1982.940000</v>
+        <v>1982.94</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1837.760000</v>
+        <v>-1837.76</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>32026.329916</v>
+        <v>32026.329915999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>8.896203</v>
+        <v>8.8962029999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2371.640000</v>
+        <v>2371.64</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2733.990000</v>
+        <v>-2733.99</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>32037.138206</v>
       </c>
       <c r="BY22" s="1">
-        <v>8.899205</v>
+        <v>8.8992050000000003</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2850.360000</v>
+        <v>2850.36</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3717.350000</v>
+        <v>-3717.35</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>32050.087756</v>
+        <v>32050.087756000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>8.902802</v>
+        <v>8.9028019999999994</v>
       </c>
       <c r="CE22" s="1">
-        <v>4274.340000</v>
+        <v>4274.34</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6086.830000</v>
+        <v>-6086.83</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>31877.138738</v>
+        <v>31877.138738000001</v>
       </c>
       <c r="B23" s="1">
-        <v>8.854761</v>
+        <v>8.8547609999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1248.010000</v>
+        <v>1248.01</v>
       </c>
       <c r="D23" s="1">
-        <v>-310.571000</v>
+        <v>-310.57100000000003</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>31887.528477</v>
@@ -5893,118 +6309,118 @@
         <v>8.857647</v>
       </c>
       <c r="H23" s="1">
-        <v>1273.650000</v>
+        <v>1273.6500000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-268.093000</v>
+        <v>-268.09300000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>31898.335301</v>
+        <v>31898.335300999999</v>
       </c>
       <c r="L23" s="1">
-        <v>8.860649</v>
+        <v>8.8606490000000004</v>
       </c>
       <c r="M23" s="1">
-        <v>1310.230000</v>
+        <v>1310.23</v>
       </c>
       <c r="N23" s="1">
-        <v>-204.953000</v>
+        <v>-204.953</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>31908.867319</v>
+        <v>31908.867319000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>8.863574</v>
+        <v>8.8635739999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1321.940000</v>
+        <v>1321.94</v>
       </c>
       <c r="S23" s="1">
-        <v>-186.412000</v>
+        <v>-186.41200000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>31919.341871</v>
+        <v>31919.341871000001</v>
       </c>
       <c r="V23" s="1">
-        <v>8.866484</v>
+        <v>8.8664839999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>1335.190000</v>
+        <v>1335.19</v>
       </c>
       <c r="X23" s="1">
-        <v>-172.501000</v>
+        <v>-172.501</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>31929.583755</v>
       </c>
       <c r="AA23" s="1">
-        <v>8.869329</v>
+        <v>8.8693290000000005</v>
       </c>
       <c r="AB23" s="1">
-        <v>1352.700000</v>
+        <v>1352.7</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.546000</v>
+        <v>-169.54599999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>31940.333517</v>
+        <v>31940.333516999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>8.872315</v>
+        <v>8.8723150000000004</v>
       </c>
       <c r="AG23" s="1">
-        <v>1365.300000</v>
+        <v>1365.3</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.231000</v>
+        <v>-179.23099999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>31950.564991</v>
+        <v>31950.564990999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>8.875157</v>
+        <v>8.8751569999999997</v>
       </c>
       <c r="AL23" s="1">
-        <v>1385.950000</v>
+        <v>1385.95</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.988000</v>
+        <v>-208.988</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>31961.211123</v>
+        <v>31961.211123000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>8.878114</v>
+        <v>8.8781140000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1407.500000</v>
+        <v>1407.5</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.759000</v>
+        <v>-252.75899999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>31971.619209</v>
@@ -6013,891 +6429,892 @@
         <v>8.881005</v>
       </c>
       <c r="AV23" s="1">
-        <v>1431.900000</v>
+        <v>1431.9</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.760000</v>
+        <v>-312.76</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>31982.241035</v>
+        <v>31982.241034999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>8.883956</v>
+        <v>8.8839559999999995</v>
       </c>
       <c r="BA23" s="1">
-        <v>1451.140000</v>
+        <v>1451.14</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.018000</v>
+        <v>-365.01799999999997</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>31992.873240</v>
+        <v>31992.873240000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>8.886909</v>
+        <v>8.8869089999999993</v>
       </c>
       <c r="BF23" s="1">
-        <v>1535.860000</v>
+        <v>1535.86</v>
       </c>
       <c r="BG23" s="1">
-        <v>-614.195000</v>
+        <v>-614.19500000000005</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>32004.252458</v>
+        <v>32004.252457999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>8.890070</v>
+        <v>8.8900699999999997</v>
       </c>
       <c r="BK23" s="1">
-        <v>1689.600000</v>
+        <v>1689.6</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1061.620000</v>
+        <v>-1061.6199999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>32015.716521</v>
+        <v>32015.716520999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>8.893255</v>
+        <v>8.8932549999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1982.930000</v>
+        <v>1982.93</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1837.880000</v>
+        <v>-1837.88</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>32026.730155</v>
+        <v>32026.730155000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>8.896314</v>
+        <v>8.8963140000000003</v>
       </c>
       <c r="BU23" s="1">
-        <v>2371.470000</v>
+        <v>2371.4699999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2733.650000</v>
+        <v>-2733.65</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>32037.553889</v>
+        <v>32037.553888999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>8.899321</v>
+        <v>8.8993210000000005</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2850.980000</v>
+        <v>2850.98</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3717.510000</v>
+        <v>-3717.51</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>32050.640331</v>
+        <v>32050.640330999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>8.902956</v>
+        <v>8.9029559999999996</v>
       </c>
       <c r="CE23" s="1">
-        <v>4279.410000</v>
+        <v>4279.41</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6095.510000</v>
+        <v>-6095.51</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>31877.820240</v>
+        <v>31877.820240000001</v>
       </c>
       <c r="B24" s="1">
-        <v>8.854950</v>
+        <v>8.8549500000000005</v>
       </c>
       <c r="C24" s="1">
-        <v>1247.910000</v>
+        <v>1247.9100000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-310.867000</v>
+        <v>-310.86700000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>31888.219860</v>
+        <v>31888.219860000001</v>
       </c>
       <c r="G24" s="1">
-        <v>8.857839</v>
+        <v>8.8578390000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1273.940000</v>
+        <v>1273.94</v>
       </c>
       <c r="I24" s="1">
-        <v>-268.531000</v>
+        <v>-268.53100000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>31898.679523</v>
+        <v>31898.679522999999</v>
       </c>
       <c r="L24" s="1">
-        <v>8.860744</v>
+        <v>8.8607440000000004</v>
       </c>
       <c r="M24" s="1">
-        <v>1309.760000</v>
+        <v>1309.76</v>
       </c>
       <c r="N24" s="1">
-        <v>-204.610000</v>
+        <v>-204.61</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>31909.216008</v>
+        <v>31909.216007999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.863671</v>
+        <v>8.8636710000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1322.010000</v>
+        <v>1322.01</v>
       </c>
       <c r="S24" s="1">
-        <v>-186.329000</v>
+        <v>-186.32900000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>31919.684072</v>
       </c>
       <c r="V24" s="1">
-        <v>8.866579</v>
+        <v>8.8665789999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>1335.300000</v>
+        <v>1335.3</v>
       </c>
       <c r="X24" s="1">
-        <v>-172.407000</v>
+        <v>-172.40700000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>31930.248364</v>
+        <v>31930.248363999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>8.869513</v>
+        <v>8.8695129999999995</v>
       </c>
       <c r="AB24" s="1">
-        <v>1352.520000</v>
+        <v>1352.52</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.784000</v>
+        <v>-169.78399999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>31940.716460</v>
+        <v>31940.71646</v>
       </c>
       <c r="AF24" s="1">
-        <v>8.872421</v>
+        <v>8.8724209999999992</v>
       </c>
       <c r="AG24" s="1">
-        <v>1365.350000</v>
+        <v>1365.35</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.274000</v>
+        <v>-179.274</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>31950.959342</v>
+        <v>31950.959341999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>8.875266</v>
+        <v>8.8752659999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1385.920000</v>
+        <v>1385.92</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.975000</v>
+        <v>-208.97499999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>31961.597505</v>
+        <v>31961.597505000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>8.878222</v>
+        <v>8.8782219999999992</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1407.480000</v>
+        <v>1407.48</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.774000</v>
+        <v>-252.774</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>31972.000851</v>
+        <v>31972.000851000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>8.881111</v>
+        <v>8.8811110000000006</v>
       </c>
       <c r="AV24" s="1">
-        <v>1431.930000</v>
+        <v>1431.93</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.781000</v>
+        <v>-312.78100000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>31982.620934</v>
+        <v>31982.620933999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>8.884061</v>
+        <v>8.8840610000000009</v>
       </c>
       <c r="BA24" s="1">
-        <v>1451.120000</v>
+        <v>1451.12</v>
       </c>
       <c r="BB24" s="1">
-        <v>-365.070000</v>
+        <v>-365.07</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>31993.296823</v>
+        <v>31993.296823000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>8.887027</v>
+        <v>8.8870269999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1535.910000</v>
+        <v>1535.91</v>
       </c>
       <c r="BG24" s="1">
-        <v>-614.221000</v>
+        <v>-614.221</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>32005.018281</v>
+        <v>32005.018281000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>8.890283</v>
+        <v>8.8902830000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1689.570000</v>
+        <v>1689.57</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1061.790000</v>
+        <v>-1061.79</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>32016.101882</v>
+        <v>32016.101881999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>8.893362</v>
+        <v>8.8933619999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1982.890000</v>
+        <v>1982.89</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1837.810000</v>
+        <v>-1837.81</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>32027.149274</v>
+        <v>32027.149273999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>8.896430</v>
+        <v>8.8964300000000005</v>
       </c>
       <c r="BU24" s="1">
-        <v>2371.210000</v>
+        <v>2371.21</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2733.620000</v>
+        <v>-2733.62</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>32037.983388</v>
+        <v>32037.983388000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>8.899440</v>
+        <v>8.8994400000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2850.940000</v>
+        <v>2850.94</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3716.150000</v>
+        <v>-3716.15</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>32051.170523</v>
+        <v>32051.170523000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>8.903103</v>
+        <v>8.9031029999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>4271.530000</v>
+        <v>4271.53</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6080.250000</v>
+        <v>-6080.25</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>31878.163969</v>
+        <v>31878.163969000001</v>
       </c>
       <c r="B25" s="1">
-        <v>8.855046</v>
+        <v>8.8550459999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>1247.890000</v>
+        <v>1247.8900000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-311.031000</v>
+        <v>-311.03100000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>31888.561142</v>
+        <v>31888.561141999999</v>
       </c>
       <c r="G25" s="1">
-        <v>8.857934</v>
+        <v>8.8579340000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>1273.270000</v>
+        <v>1273.27</v>
       </c>
       <c r="I25" s="1">
-        <v>-268.701000</v>
+        <v>-268.70100000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>31899.028708</v>
+        <v>31899.028708000002</v>
       </c>
       <c r="L25" s="1">
-        <v>8.860841</v>
+        <v>8.8608410000000006</v>
       </c>
       <c r="M25" s="1">
-        <v>1310.040000</v>
+        <v>1310.04</v>
       </c>
       <c r="N25" s="1">
-        <v>-204.957000</v>
+        <v>-204.95699999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>31909.872213</v>
+        <v>31909.872212999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.863853</v>
+        <v>8.8638530000000006</v>
       </c>
       <c r="R25" s="1">
-        <v>1322.100000</v>
+        <v>1322.1</v>
       </c>
       <c r="S25" s="1">
-        <v>-186.349000</v>
+        <v>-186.34899999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>31920.362103</v>
+        <v>31920.362102999999</v>
       </c>
       <c r="V25" s="1">
-        <v>8.866767</v>
+        <v>8.8667669999999994</v>
       </c>
       <c r="W25" s="1">
-        <v>1335.370000</v>
+        <v>1335.37</v>
       </c>
       <c r="X25" s="1">
-        <v>-172.417000</v>
+        <v>-172.417</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>31930.629322</v>
+        <v>31930.629322000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.869619</v>
+        <v>8.8696190000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1352.470000</v>
+        <v>1352.47</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.787000</v>
+        <v>-169.78700000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>31941.060157</v>
       </c>
       <c r="AF25" s="1">
-        <v>8.872517</v>
+        <v>8.8725170000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1365.370000</v>
+        <v>1365.37</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.313000</v>
+        <v>-179.31299999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>31951.308495</v>
+        <v>31951.308495000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>8.875363</v>
+        <v>8.8753630000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1385.950000</v>
+        <v>1385.95</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.003000</v>
+        <v>-209.00299999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>31961.956640</v>
+        <v>31961.95664</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.878321</v>
+        <v>8.8783209999999997</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1407.460000</v>
+        <v>1407.46</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.792000</v>
+        <v>-252.792</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>31972.423186</v>
       </c>
       <c r="AU25" s="1">
-        <v>8.881229</v>
+        <v>8.8812289999999994</v>
       </c>
       <c r="AV25" s="1">
-        <v>1431.900000</v>
+        <v>1431.9</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.819000</v>
+        <v>-312.81900000000002</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>31983.049476</v>
       </c>
       <c r="AZ25" s="1">
-        <v>8.884180</v>
+        <v>8.8841800000000006</v>
       </c>
       <c r="BA25" s="1">
-        <v>1451.130000</v>
+        <v>1451.13</v>
       </c>
       <c r="BB25" s="1">
-        <v>-365.027000</v>
+        <v>-365.02699999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>31993.597897</v>
       </c>
       <c r="BE25" s="1">
-        <v>8.887111</v>
+        <v>8.8871110000000009</v>
       </c>
       <c r="BF25" s="1">
-        <v>1535.870000</v>
+        <v>1535.87</v>
       </c>
       <c r="BG25" s="1">
-        <v>-614.224000</v>
+        <v>-614.22400000000005</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>32005.394247</v>
       </c>
       <c r="BJ25" s="1">
-        <v>8.890387</v>
+        <v>8.8903870000000005</v>
       </c>
       <c r="BK25" s="1">
-        <v>1689.470000</v>
+        <v>1689.47</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1061.600000</v>
+        <v>-1061.5999999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>32016.501688</v>
       </c>
       <c r="BO25" s="1">
-        <v>8.893473</v>
+        <v>8.8934730000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1982.870000</v>
+        <v>1982.87</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1837.810000</v>
+        <v>-1837.81</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>32027.562946</v>
+        <v>32027.562945999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>8.896545</v>
+        <v>8.8965449999999997</v>
       </c>
       <c r="BU25" s="1">
-        <v>2371.200000</v>
+        <v>2371.1999999999998</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2733.420000</v>
+        <v>-2733.42</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>32038.533451</v>
+        <v>32038.533450999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>8.899593</v>
+        <v>8.8995929999999994</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2850.600000</v>
+        <v>2850.6</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3716.960000</v>
+        <v>-3716.96</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>32051.689834</v>
+        <v>32051.689834000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>8.903247</v>
+        <v>8.9032470000000004</v>
       </c>
       <c r="CE25" s="1">
-        <v>4257.710000</v>
+        <v>4257.71</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6087.720000</v>
+        <v>-6087.72</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>31878.507695</v>
       </c>
       <c r="B26" s="1">
-        <v>8.855141</v>
+        <v>8.8551409999999997</v>
       </c>
       <c r="C26" s="1">
-        <v>1248.100000</v>
+        <v>1248.0999999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-310.929000</v>
+        <v>-310.92899999999997</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>31889.207429</v>
+        <v>31889.207428999998</v>
       </c>
       <c r="G26" s="1">
-        <v>8.858113</v>
+        <v>8.8581129999999995</v>
       </c>
       <c r="H26" s="1">
-        <v>1274.210000</v>
+        <v>1274.21</v>
       </c>
       <c r="I26" s="1">
-        <v>-268.727000</v>
+        <v>-268.72699999999998</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>31899.686407</v>
+        <v>31899.686407000001</v>
       </c>
       <c r="L26" s="1">
-        <v>8.861024</v>
+        <v>8.8610240000000005</v>
       </c>
       <c r="M26" s="1">
-        <v>1310.060000</v>
+        <v>1310.06</v>
       </c>
       <c r="N26" s="1">
-        <v>-205.117000</v>
+        <v>-205.11699999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>31910.264052</v>
+        <v>31910.264051999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>8.863962</v>
+        <v>8.8639620000000008</v>
       </c>
       <c r="R26" s="1">
-        <v>1322.030000</v>
+        <v>1322.03</v>
       </c>
       <c r="S26" s="1">
-        <v>-186.364000</v>
+        <v>-186.364</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>31920.715257</v>
       </c>
       <c r="V26" s="1">
-        <v>8.866865</v>
+        <v>8.8668650000000007</v>
       </c>
       <c r="W26" s="1">
-        <v>1335.310000</v>
+        <v>1335.31</v>
       </c>
       <c r="X26" s="1">
-        <v>-172.317000</v>
+        <v>-172.31700000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>31930.977020</v>
+        <v>31930.977019999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>8.869716</v>
+        <v>8.8697160000000004</v>
       </c>
       <c r="AB26" s="1">
-        <v>1352.580000</v>
+        <v>1352.58</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.738000</v>
+        <v>-169.738</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>31941.403885</v>
       </c>
       <c r="AF26" s="1">
-        <v>8.872612</v>
+        <v>8.8726120000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>1365.330000</v>
+        <v>1365.33</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.271000</v>
+        <v>-179.27099999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>31951.658707</v>
+        <v>31951.658706999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>8.875461</v>
+        <v>8.8754609999999996</v>
       </c>
       <c r="AL26" s="1">
-        <v>1385.960000</v>
+        <v>1385.96</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.995000</v>
+        <v>-208.995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>31962.382704</v>
       </c>
       <c r="AP26" s="1">
-        <v>8.878440</v>
+        <v>8.8784399999999994</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1407.460000</v>
+        <v>1407.46</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.706000</v>
+        <v>-252.70599999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>31972.727730</v>
+        <v>31972.727729999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>8.881313</v>
+        <v>8.8813130000000005</v>
       </c>
       <c r="AV26" s="1">
-        <v>1431.900000</v>
+        <v>1431.9</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.808000</v>
+        <v>-312.80799999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>31983.339636</v>
+        <v>31983.339636000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>8.884261</v>
+        <v>8.8842610000000004</v>
       </c>
       <c r="BA26" s="1">
-        <v>1451.130000</v>
+        <v>1451.13</v>
       </c>
       <c r="BB26" s="1">
-        <v>-365.021000</v>
+        <v>-365.02100000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>31993.958486</v>
       </c>
       <c r="BE26" s="1">
-        <v>8.887211</v>
+        <v>8.8872110000000006</v>
       </c>
       <c r="BF26" s="1">
-        <v>1535.890000</v>
+        <v>1535.89</v>
       </c>
       <c r="BG26" s="1">
-        <v>-614.276000</v>
+        <v>-614.27599999999995</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>32005.772199</v>
+        <v>32005.772198999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>8.890492</v>
+        <v>8.8904920000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1689.520000</v>
+        <v>1689.52</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1061.640000</v>
+        <v>-1061.6400000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>32016.922760</v>
+        <v>32016.922760000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>8.893590</v>
+        <v>8.8935899999999997</v>
       </c>
       <c r="BP26" s="1">
-        <v>1982.880000</v>
+        <v>1982.88</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1837.730000</v>
+        <v>-1837.73</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>32027.976633</v>
+        <v>32027.976632999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>8.896660</v>
+        <v>8.8966600000000007</v>
       </c>
       <c r="BU26" s="1">
-        <v>2371.000000</v>
+        <v>2371</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2733.330000</v>
+        <v>-2733.33</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>32038.848411</v>
+        <v>32038.848410999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>8.899680</v>
+        <v>8.89968</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2850.470000</v>
+        <v>2850.47</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3716.650000</v>
+        <v>-3716.65</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>32052.206201</v>
+        <v>32052.206201000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>8.903391</v>
+        <v>8.9033909999999992</v>
       </c>
       <c r="CE26" s="1">
-        <v>4265.730000</v>
+        <v>4265.7299999999996</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6100.030000</v>
+        <v>-6100.03</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>